--- a/info.xlsx
+++ b/info.xlsx
@@ -1,37 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>picPath</t>
+  </si>
+  <si>
+    <t>urlLink</t>
+  </si>
+  <si>
+    <t>refreshTime</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>delled</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>a,b</t>
+  </si>
+  <si>
+    <t>c,d</t>
+  </si>
+  <si>
+    <t>a.png</t>
+  </si>
+  <si>
+    <t>c-png.html</t>
+  </si>
+  <si>
+    <t>d-png.html</t>
+  </si>
+  <si>
+    <t>2024-08-14 12:38:39</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +111,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,149 +427,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>desc</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>picPath</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>urlLink</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>refreshTime</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>delled</t>
-        </is>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ccc</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>a,b</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>a.png</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>c-png.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2024-08-14 12:38:39</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
         <v>100</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ddd</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>c,d</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>a.png</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>d-png.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2024-08-14 12:38:39</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
         <v>100</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/info.xlsx
+++ b/info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="658">
   <si>
     <t>index</t>
   </si>
@@ -43,34 +43,1960 @@
     <t>delled</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>a,b</t>
-  </si>
-  <si>
-    <t>c,d</t>
-  </si>
-  <si>
-    <t>a.png</t>
-  </si>
-  <si>
-    <t>c-png.html</t>
-  </si>
-  <si>
-    <t>d-png.html</t>
-  </si>
-  <si>
-    <t>2024-08-14 12:38:39</t>
+    <t>stylize</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>iw</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>tile</t>
+  </si>
+  <si>
+    <t>title0</t>
+  </si>
+  <si>
+    <t>desc0</t>
+  </si>
+  <si>
+    <t>mjid</t>
+  </si>
+  <si>
+    <t>lue2023-Thor-Portrait-on-white-background-in-the-style-of-color</t>
+  </si>
+  <si>
+    <t>xam619-south-park-stick-of-truth-red-hair-elf-red-dragon-noble-</t>
+  </si>
+  <si>
+    <t>mecheslav-wolf-with-six-legs-six-feets-six-legs-many-legs-demon</t>
+  </si>
+  <si>
+    <t>xiaoming3971-httpss.mj.runFVPXA-AZhLE-Office-space-Blue-desk-Pi</t>
+  </si>
+  <si>
+    <t>youkia123.-httpss.mj.runkw4-a4bgRRU-Ferris-Wheel-Animated-Shape</t>
+  </si>
+  <si>
+    <t>duonganh8900-cute-funny-deer-silly-Muted-Color-Cartoon-Contour-</t>
+  </si>
+  <si>
+    <t>rockstudio01.-httpss.mj.run-O-uv2SNGi8-Best-Quality-Masterpiece</t>
+  </si>
+  <si>
+    <t>nikahgeh-Ramadan-Kareem.-Islamic-greeting-card-template-with-Ra</t>
+  </si>
+  <si>
+    <t>babbplat-isometric-bright-drinks-cafe-clean-pixel-art</t>
+  </si>
+  <si>
+    <t>crazydarkqueen-3d-delicate-vintage-lace-pattern-soft-pale-color</t>
+  </si>
+  <si>
+    <t>panghuhuhu-a-viking-statute-with-a-face-okuda-sna-miguel</t>
+  </si>
+  <si>
+    <t>daidaidai6024-Monopoly-game-material-grass-wildflowers-bushes-8</t>
+  </si>
+  <si>
+    <t>techbegind-American-comic-style-comic-style-characters-full-bod</t>
+  </si>
+  <si>
+    <t>gebronicastle-Antarctic-expedition-that-uncovers-ancient-otherw</t>
+  </si>
+  <si>
+    <t>frostheart3879-design-a-genshin-impact-character-Zhongli-from-g</t>
+  </si>
+  <si>
+    <t>liyi8993-httpss.mj.runqY-2Z7HSrms-the-cartoon-woman-Standing-3D</t>
+  </si>
+  <si>
+    <t>sol2570-Isla-Grande-de-Tierra-del-Fuego-map-concept-con-muchas-</t>
+  </si>
+  <si>
+    <t>victor-38127-trs-princesas-castelo-bem-detalhado-jardim-animais</t>
+  </si>
+  <si>
+    <t>a13816023346-httpss.mj.runnvbaURaU0hg-White-background-Pixar-fi</t>
+  </si>
+  <si>
+    <t>shaobenz.bd-Japanese-Art-text-at-start-of-the-description-Cinem</t>
+  </si>
+  <si>
+    <t>martin.hwang-httpss.mj.runVCnR4txMBMs-birthday-cake-as-key-visu</t>
+  </si>
+  <si>
+    <t>althasizor-Kitsune-Rogue-androgynous-dark-blue-fur-3-tails-red-</t>
+  </si>
+  <si>
+    <t>oscar.maia-a-portrait-of-young-black-man-made-out-of-clay-simpl</t>
+  </si>
+  <si>
+    <t>mnj8--PS3-isometric</t>
+  </si>
+  <si>
+    <t>tpadmin-45-A-red-wolf-robot-running-in-a-river-straightforward-</t>
+  </si>
+  <si>
+    <t>gtywzx-httpss.mj.runTTeO7Sa1nG0-3D-simple-pastoral-scenery-simp</t>
+  </si>
+  <si>
+    <t>span08.-cute-male-character-65-years-old-character-sheet-Pixar-</t>
+  </si>
+  <si>
+    <t>sorrows4488-Marvel-Comic-Style-Wahrhammer-40k-Drukhari-Warhamme</t>
+  </si>
+  <si>
+    <t>ravnis-an-anime-girl-with-wings-and-red-dress-in-the-style-of-l</t>
+  </si>
+  <si>
+    <t>momowang1231-luxury-jewerly-design-sheetby-bvlgari-sketchparts-</t>
+  </si>
+  <si>
+    <t>another77-An-old-male-viking-king-warrior--with-blue-armor-and-</t>
+  </si>
+  <si>
+    <t>kawoon-massive-futuristic-armored-indestructible-train-masterpi</t>
+  </si>
+  <si>
+    <t>wynshirley-A-lovely-girl-full-body-kite-light-yellow-long-hair-</t>
+  </si>
+  <si>
+    <t>jplaysss-a-large-gray-scaled-dragon-bulky-torso-short-snout-dra</t>
+  </si>
+  <si>
+    <t>sfenks.-roadside-meadow-2d-flat-front-view-game-sprites-cartoon</t>
+  </si>
+  <si>
+    <t>bauseysaucey-a-cartoon-sticker-decal-of-a-u.s.-army-101st-airbo</t>
+  </si>
+  <si>
+    <t>itzikkierenvictor-Full-Body-Three-Headed-Bodycute-chinese-boyA-</t>
+  </si>
+  <si>
+    <t>gaojinhwa-A-blonde-female-elf-with-long-hair-in-two-braids-wear</t>
+  </si>
+  <si>
+    <t>luohaoxuan-httpss.mj.runJpFY89JnzpM-httpss.mj.runnDSGH5HYH6w-Re</t>
+  </si>
+  <si>
+    <t>corsairghost-3d-model-realistic-cartoon-island-los-angeles-cali</t>
+  </si>
+  <si>
+    <t>gandard-Giant-gold-title-Text--Dragons-Rouges</t>
+  </si>
+  <si>
+    <t>tuna.isaiah60-A-small-Chinese-general-Lu-Bu-toy-building-block-</t>
+  </si>
+  <si>
+    <t>stanrdx-a-game-where-you-steer-a-cartoony-fishing-vessel-from-a</t>
+  </si>
+  <si>
+    <t>salt1611-Minimalistic-plain-house-in-the-style-of-low-poly-punk</t>
+  </si>
+  <si>
+    <t>mashtaliero-Full-length-Russian-warrior-clad-in-iron-plate-armo</t>
+  </si>
+  <si>
+    <t>aki2514-Puzzle-Match-3-Icon-Objects-2D-Front-Frontal---ar-169--</t>
+  </si>
+  <si>
+    <t>danviciart-A-website-design-for-a-fantasy-game-showcasing-chibi</t>
+  </si>
+  <si>
+    <t>flash75ua-UI-Design-of-a-match-3-Game-clean-flat-UI-In-the-cent</t>
+  </si>
+  <si>
+    <t>raven-wen-Web-stylized-game-interface-design-Zelda-style-UI-des</t>
+  </si>
+  <si>
+    <t>xiaojiu0629-54717-A-set-of-2D-game-skill-icons-square-including</t>
+  </si>
+  <si>
+    <t>david.ang-top-down-sci-fi-neon-ghoul-in-the-style-of-hyper-ligh</t>
+  </si>
+  <si>
+    <t>davidnorris-multiple-character-sprite-sheet-RPG-characters-move</t>
+  </si>
+  <si>
+    <t>evilrender-16-bit-pixel-art-grass-tileset-sprite-sprite-sheet--</t>
+  </si>
+  <si>
+    <t>bigtrav205-a-pixel-art-collection-of-various-pokemon-characters</t>
+  </si>
+  <si>
+    <t>gdacarv-pixel-art-multiple-sprites-low-res-platformer-game-char</t>
+  </si>
+  <si>
+    <t>bizarre84-sprite-sheet-of-arrow-button-for-menu-endless-runner-</t>
+  </si>
+  <si>
+    <t>walle3581-A-power-up-selection-screen-for-a-match-3-game-displa</t>
+  </si>
+  <si>
+    <t>arenbo-tiled-block-grass-medieval-fight-arena-for-low-poly-vect</t>
+  </si>
+  <si>
+    <t>cnecula-blocks-for-2D-game-top-view-aztec-theme</t>
+  </si>
+  <si>
+    <t>ivanz7613-Pixel-Art-GUI-Elements-sprite-sheet</t>
+  </si>
+  <si>
+    <t>oposx-weapon-of-choice-snes-rpg-sprite-sheet</t>
+  </si>
+  <si>
+    <t>crypto-dragon-httpss.mj.runi5y5dx-ecV8-photorealistic-happy-cut</t>
+  </si>
+  <si>
+    <t>cicelywu-Grim-Reaper-with-black-cloak-and-hood-holding-scythe-i</t>
+  </si>
+  <si>
+    <t>abundanceandflow-A-ring-made-of-gold-and-diamonds-that-is-inspi</t>
+  </si>
+  <si>
+    <t>zzzwh-013-Wolf-in-Chinese-armor-majestic-and-cool-girdle-full-b</t>
+  </si>
+  <si>
+    <t>tomjkr-A-black-dragon-with-red-spikes-its-body-is-surrounded-by</t>
+  </si>
+  <si>
+    <t>psd2023-httpss.mj.runN5VH5jHRkP0-3d-cartoon-style-casual-game-a</t>
+  </si>
+  <si>
+    <t>jcarl904-tiger-gorilla-hybrid-mythical-creature-full-body-t-pos</t>
+  </si>
+  <si>
+    <t>rnddeuscraft-icon-start-battle-with-two-crossed-swords-for-the-</t>
+  </si>
+  <si>
+    <t>bigmodels8087-2d-game-battle-arena-background-topview-hearthsto</t>
+  </si>
+  <si>
+    <t>tomato-goose-black-gemstones-beautiful-jewelry-shine-art</t>
+  </si>
+  <si>
+    <t>gridplus-httpss.mj.run5PReacOGPVQ-A-mobile-game-screen-showing-</t>
+  </si>
+  <si>
+    <t>kistch6676-There-are-eight-square-islands-each-decorated-in-bea</t>
+  </si>
+  <si>
+    <t>jc01559-A-cute-Snoopy-Dog-demon-with-orange-eyes-dressed-as-the</t>
+  </si>
+  <si>
+    <t>johnnyqin.-Illustration-of-green-flowers-and-grass-in-realistic</t>
+  </si>
+  <si>
+    <t>fu4lu4wangluo-with-a-three-quarters-view-from-above</t>
+  </si>
+  <si>
+    <t>ikekatsu1213-45539-several-stickers-in-1-piece-knolling-of-mini</t>
+  </si>
+  <si>
+    <t>woobes.-httpss.mj.runjiIubcAVNkE-httpss.mj.run9zOAzWQQWXs-https</t>
+  </si>
+  <si>
+    <t>030.gg-Single-Maplestory-inspired-character-based-on-job-classe</t>
+  </si>
+  <si>
+    <t>chris.zo-lego-figure-set-a-medieval-Knight-wearing-knights-armo</t>
+  </si>
+  <si>
+    <t>susanv22-an-elaborate-tree-house-in-the-jungle-photorealistic-f</t>
+  </si>
+  <si>
+    <t>hsp527364584-Full-body-shot-wide-angle-happy-girl-3D-cartoon-ch</t>
+  </si>
+  <si>
+    <t>david.koopman-Create-a-Disney-style-animated-illustration-of-Br</t>
+  </si>
+  <si>
+    <t>maodoooo-httpss.mj.runAujYay3lg98-A-sleek-black-and-gold-mecha-</t>
+  </si>
+  <si>
+    <t>lioliinyk-31539-Cartoon-style-fairy-big-eyes-long-legs-and-long</t>
+  </si>
+  <si>
+    <t>shawnna2222-top-down-view-flat-lay-view-looking-straight-down-2</t>
+  </si>
+  <si>
+    <t>kml55555-Identify-gem-game-interface-user-interface-design-iden</t>
+  </si>
+  <si>
+    <t>micahu-httpss.mj.runWmx9GCJncNA-The-icon-of-the-back-with-blue-</t>
+  </si>
+  <si>
+    <t>oddblotter-Dungeon-Fantasy-Enemy-Asset-pack-simple-top-down-gam</t>
+  </si>
+  <si>
+    <t>new-pp-A-3D-chibi-greatsword-made-of-dark-metal-and-magical-cry</t>
+  </si>
+  <si>
+    <t>industry3d-digital-3d-avatar-many-current-fashion-accessories-i</t>
+  </si>
+  <si>
+    <t>asdhasuhdasdhaks4564565-httpss.mj.runNiHo551p0Uc-httpss.mj.runs</t>
+  </si>
+  <si>
+    <t>wakedream-ability-icons-that-provides-an-acceleration-effectd-1ea41635-e050-4ebc-862d-25420a2be4c0-2</t>
+  </si>
+  <si>
+    <t>wakedream-An-isometric-temple-3D-OC-rendering-tilt-shift-C4D--6955e3bc-2766-4b21-9fed-72229cf0c5fa-3</t>
+  </si>
+  <si>
+    <t>wakedream-A-highly-detailed-3D-render-of-a-temple-on-the-moun</t>
+  </si>
+  <si>
+    <t>wakedream-A-highly-detailed-3D-render-of-Chinese-stone-bridge-c071cf61-829d-479a-b145-776a4f095d33-3</t>
+  </si>
+  <si>
+    <t>wakedream-miniature-landscape-jade-sculpture-mountains-a-chin</t>
+  </si>
+  <si>
+    <t>aucreed-genshin-impact</t>
+  </si>
+  <si>
+    <t>deetoshi-Create-a-full-body-character-design-in-anime-style-of-</t>
+  </si>
+  <si>
+    <t>grupo1-Male-Anime-Genshin-Impact-Charater-ocean-blue-outfit</t>
+  </si>
+  <si>
+    <t>early5445-Genshin-impact-like-character-standing-in-Singapore.-</t>
+  </si>
+  <si>
+    <t>edward-zfy-01397-full-body-3D-rendered-of-Ganyu-game-of-Genshin</t>
+  </si>
+  <si>
+    <t>Thor Portrait on white background, in the style of colorful cartoon, cartoon style vector, keith haring, adorable toy sculptures, minimal character, fanciful costume design, ronald balfour</t>
+  </si>
+  <si>
+    <t>south park stick of truth, red hair elf, red dragon noble clothes, fire magic</t>
+  </si>
+  <si>
+    <t>wolf with six legs, six feets, six legs, many legs, demon jaw, one giant fungus on back, drawned in style of dungeon and dragons or pathfinder fantasy monsters</t>
+  </si>
+  <si>
+    <t>Office space, Blue desk, Picture of boat on wall, Game style, Bubble goth, Cartoon, 2D, HD, 8K,4K</t>
+  </si>
+  <si>
+    <t>Ferris Wheel, Animated Shape Style, Low Polygons, Mom's Phone Core, Animated GIF, Made of Rubber, Toyism, Crisp Clean Look,</t>
+  </si>
+  <si>
+    <t>cute funny deer silly, Muted Color, Cartoon, Contour, Vector, White Background, Detailed</t>
+  </si>
+  <si>
+    <t>(Best Quality, Masterpiece: 1.2), Evil Old Witch, women,Cartoon, American Animation Style, Pixar Style, Detailed, Holding Wand, Robe,full body 皮克斯动画[pixar style]</t>
+  </si>
+  <si>
+    <t>Ramadan Kareem. Islamic greeting card template with Ramadan for wallpaper design. Poster, media banner. of vector illustrations</t>
+  </si>
+  <si>
+    <t>isometric, bright drinks cafe, clean pixel art</t>
+  </si>
+  <si>
+    <t>3d delicate vintage lace pattern, soft pale color,</t>
+  </si>
+  <si>
+    <t>a viking statute with a face, okuda sna miguel style,Solid Color Background, Studio Lighting</t>
+  </si>
+  <si>
+    <t>Monopoly game material, grass, wildflowers, bushes, 8 styles display, 3d, lowpoly::1
+style, isometric::1</t>
+  </si>
+  <si>
+    <t>American comic style, comic style characters, full-body pictures, delicate light and shadow effects, a bad girl in black uniform, a cold killer, carrying a long Japanese bayonet, wearing calfskin socks, small leather shoes, and a red bow tie, Asian Face, looking at the camera with eyes full of emotions, delicate face, straight bangs, straight black hair, perfect figure, plaid skirt, apocalyptic art style, punk, strong sense of reality, 3D effect, strong contrast between light and dark, high resolution, detailed depiction, white background, vertical image,</t>
+  </si>
+  <si>
+    <t>Antarctic expedition that uncovers ancient otherworldly ruins of dead eldritch gods and walking inside glowing ruins, illustration, by Zdzislaw Beksinski, by Philippe Caza,</t>
+  </si>
+  <si>
+    <t>design a genshin impact character: Zhongli from genshin impact,miHoYo style, kawacy, shiny/glossy, 2d game art, meticulous fantasy, play of light, white and gold</t>
+  </si>
+  <si>
+    <t>the cartoon woman Standing, 3D rendering model, Trendy toys, happy expression, full body, Q-shaped body shape, chibi, cute figure, stylish outfit, clean and simple designs,in the style of detailed character design, 32k uhd, scoutcore, precise craftsmanship</t>
+  </si>
+  <si>
+    <t>Isla Grande de Tierra del Fuego map concept con muchas zonas de bosque y vegetación</t>
+  </si>
+  <si>
+    <t>três princesas, castelo bem detalhado, jardim, animais, pássaros, cores vibrantes e fortes, estili chibi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+25w
+White background, Pixar film style, disney movie style::1
+2, illustration, cartoon, full body, facial close up, A Disney-style male from the ancient Chinese Song Dynasty, 25 years old, with a tall build and a mighty appearance. He wears a metal hairband, blue ancient Chinese Song Dynasty monk clothes, ancient Chinese walker clothes, muscular build, and a long string of black beads hanging around his neck. , holding a steel knife in his hand, insane details, looking at the camera, 8K resolution, HDR,::1</t>
+  </si>
+  <si>
+    <t>Japanese Art text at start of the description, Cinematic, Hyper-detailed, insane details, Beautifully color graded, Unreal Engine, DOF, Super-Resolution,Megapixel, Cinematic Lightning, Anti-Aliasing, FKAA, TXAA, RTX,SSAO,Post Processing, Post Production, Tone Mapping, CGI, VFX, SFX, Insanely detailed and intricate , Hyper maximalist, Hyper realistic, Volumetric, Photorealistic, ultra photoreal, ultra- detailed, intricate details,8K, Super detailed , Full color, Volumetric lightning, HDR, Realistic, Unreal Engine, 16K, Sharp focus.--v testp</t>
+  </si>
+  <si>
+    <t>birthday cake as key visual center, Belimo brand, with "Belimo" text on it, simple 3D cartoon style, speed train tracks, pipline, airplane, buildings surround cake, some small orange cube float on sky, color scheme is orange and spring green, isometric, spring season background, Octane render, high quality, masterpeice,</t>
+  </si>
+  <si>
+    <t>Kitsune Rogue, androgynous, dark blue fur, 3 tails, red and white armoured kimono, green eyes</t>
+  </si>
+  <si>
+    <t>a portrait of young black man made out of clay, simple Pixar cartoon style, black beanie, a gold tooth, white background</t>
+  </si>
+  <si>
+    <t>PS3 isometric,</t>
+  </si>
+  <si>
+    <t>A red wolf robot running in a river, straightforward, futuristic technology.elaborate clothing, blind box, hologram, translucent, 3d. Mockup, popular supermarket design fluorescent transparent metal armor, bright lights, claymaterial, precision mechanical parts. Closeup intensity. Ultra detailed, C4D, OctaneRendering, Blender, 8K, HD</t>
+  </si>
+  <si>
+    <t>3D simple pastoral scenery, simple background, cartoon simple tree, sky-blue, light yellow and cyan, minimalist stage designs, 32k uhd, There is a circular stage in the middle,blind box toy style, organic, fluid lines</t>
+  </si>
+  <si>
+    <t>cute male character 65 years old, character sheet, Pixar, watercolor style, multiple expressions and multiple poses, multiple profiles, character set, illustration style of Syd Hoff, Illustration for children's book, always wearing black rounded glasses and black french beret, darkblue jacket, darkblue blazer pants, bow tie, white hair, white mustache, featuring front, side, and back views</t>
+  </si>
+  <si>
+    <t>Marvel Comic Style, Wahrhammer 40k Drukhari, Warhammer 40k, comic of female Dark_Elve Banshee attacking wirh a whip., Elven slim athletic Appeareance. Greyish, light purple skin. Long red Hair mane. white glowing eyes. with red Spots of Liquid allover. White ceramic Armor and simlistic white mask, Badass stylized dynamic epic-styled poster depicting , facing at camera, war, full-body walking shot, proud charismatic expression, jeremy mann</t>
+  </si>
+  <si>
+    <t>an anime girl with wings and red dress, in the style of light white and dark azure, rtx on, die brücke, pigeoncore, exaggerated poses, multi-layered, epic</t>
+  </si>
+  <si>
+    <t>luxury jewerly design sheet,by bvlgari, sketch,parts sheet s,,sapphire necklace,diamonds and saphhires, saphhirewhite gold, black background,shinney,pencil sketch, best quality,</t>
+  </si>
+  <si>
+    <t>An old male viking king warrior , with blue armor and an Hammer. final boss. blue eyes. full body. All white background . detailed. cartoon . In the style of a board game character.</t>
+  </si>
+  <si>
+    <t>massive futuristic armored indestructible train, masterpiece, videogame concept art, 4k, octane render</t>
+  </si>
+  <si>
+    <t>A lovely girl, full body, kite, light yellow long hair, bun, wearing Hanfu, pear flower pattern, pear flower base,wearing Hanfu, full body display, white background, blind box toy style, anime style character design, chibi style, high definition photography, exquisite details, exquisite facial features, super details, 3D rendering, OC renderer, blender,</t>
+  </si>
+  <si>
+    <t>a large gray scaled dragon, bulky torso, short snout, dragon wings, covered in scars, jagged sharp maw, standing upright pose looking upward, white background, full body in frame, art by Sarah Stone, art by Eva Widermann, concept art,</t>
+  </si>
+  <si>
+    <t>roadside meadow, 2d flat front view game sprites, cartoon style, vector, 3 green colors</t>
+  </si>
+  <si>
+    <t>a cartoon sticker decal of a u.s. army 101st airborne trooper, armed and dangerous, grunt style, vector, solid background</t>
+  </si>
+  <si>
+    <t>Full Body, Three-Headed Body,cute chinese boy,A fat Chinese man with a long beard, wearing a Taoist robe, cute,with a banana fan in his hand and a ferocious look on his face,three-view drawing,enerate three views,namely the front view, the side view and the back view,IP design,Rich Colors, Chinese tradition Costume, Bright Colors, Chinese minority ethnic elements, Intricate Details</t>
+  </si>
+  <si>
+    <t>A blonde female elf with long hair in two braids, wearing a white dress and teal cape, holding a spear, with a simple background</t>
+  </si>
+  <si>
+    <t>Red polka dot mini skirt, a white western woman, A 25-year-old American woman, full body, 22 years old ,in disney pixar character styles</t>
+  </si>
+  <si>
+    <t>3d model, realistic cartoon island los angeles california, include scotti’s surf shop, include people, at night, in the style of frozen movement, include people, realistic and accurate assemblages, toy-like proportions, high-angle, elaborate artistic environments, white background, 8k</t>
+  </si>
+  <si>
+    <t>Giant gold title, Text: " Dragons Rouges"</t>
+  </si>
+  <si>
+    <t>A small Chinese general Lu Bu toy building block figure, full body, 3/4 left view, cloth cloak, red, black and gold clothing, holding a halberd, white background, bright picture,</t>
+  </si>
+  <si>
+    <t>a game where you steer a cartoony fishing vessel from a top down perspective</t>
+  </si>
+  <si>
+    <t>Minimalistic plain, house in the style of low-poly punk steam, no way, bonfire, sunny day, mobile game, top view, 3D mobile game style, low-poly, 3D,</t>
+  </si>
+  <si>
+    <t>Full-length Russian warrior clad in iron plate armor, with medium-length brown hair and a short beard, holding a shield and sword, rendered in the animated style of a Disney movie character. The focus is on the warrior's combat-ready stance and the intricate details of his armor, sword, and shield, which reflect the craftsmanship of the 9th century. The character's expression is determined and resolute, with the weaponry displayed prominently. This vivid, engaging portrayal is set against a backdrop that hints at the medieval Rus landscape, all captured in the vertical composition of a 9:16 format, showcasing the heroism and valor of the time</t>
+  </si>
+  <si>
+    <t>Puzzle, Match-3, Icon, Objects, 2D, Front, Frontal,</t>
+  </si>
+  <si>
+    <t>A website design for a fantasy game, showcasing chibi heroes, bright eyes, engaging with zombies and mystical creatures in a dark forest. The user interface features animated icons, a leaderboard section, and magical particle effects around the mouse cursor. Created Using: pixel art style, contrasting color scheme, dynamic character poses, animated UI elements, user interaction hints, fairy-tale fonts, X prompt, hd quality, natural look</t>
+  </si>
+  <si>
+    <t>UI Design of a match 3 Game, clean flat UI, In the center of main interface a translucent grid2 of game assets of Various nuts arranged in 6 rows and 6 columns::2.5
+three tasks icons and Remaining Steps text bar, Experience progress bar at the top of the main interface::2
+beautiful colorful nuts asset theme, bottom of the main interface beplaced tasklists icon, backpacks icon, emails icon::2
+iphone screen, happy color, Ultra detail, 8k::1</t>
+  </si>
+  <si>
+    <t>Web stylized game interface design, Zelda style, UI design, highly saturated, colorful, cartoon UI, bright colors</t>
+  </si>
+  <si>
+    <t>A set of 2D game skill icons, square, including: Freeze, Lightning, Bomb, Fire Dragon, Phoenix, Acceleration, Hibernation</t>
+  </si>
+  <si>
+    <t>top down sci-fi neon ghoul, in the style of hyper light drifter, each spritesheet should have multiple poses, back view, side view, front view, isometric view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+30w
+multiple character sprite sheet, RPG characters, movement</t>
+  </si>
+  <si>
+    <t>16-bit pixel art, grass tileset, sprite, sprite sheet</t>
+  </si>
+  <si>
+    <t>a pixel art collection of various pokemon characters, in the style of monochromatic realism, raphael, ink wash, animated gifs, light green and gray, ps1 graphics, strong contrast, chiaroscuro</t>
+  </si>
+  <si>
+    <t>pixel art, multiple sprites, low-res, platformer game, characters spritesheet</t>
+  </si>
+  <si>
+    <t>sprite sheet of arrow button for menu endless runner game white background</t>
+  </si>
+  <si>
+    <t>A power-up selection screen for a match-3 game, displaying various boosters in a grid, each with unique, thematic icons against a magical background. Created Using: enchanting illustrations, thematic coherence, Royal Match like artistry, vivid icons, clear labels, interactive design, X prompt, hd quality, natural look</t>
+  </si>
+  <si>
+    <t>tiled block grass medieval fight arena for low poly vector isometric anime rpg game</t>
+  </si>
+  <si>
+    <t>blocks for 2D game, top view, aztec theme</t>
+  </si>
+  <si>
+    <t>Pixel Art GUI Elements, sprite sheet</t>
+  </si>
+  <si>
+    <t>weapon of choice, snes rpg sprite sheet</t>
+  </si>
+  <si>
+    <t>photorealistic, happy, cute baby mythological dragons, enchanting eyes that sparkle with curiosity and innocence, pure white background,</t>
+  </si>
+  <si>
+    <t>Grim Reaper with black cloak and hood, holding scythe in hand, skull head on his chest, pink glowing eyes, fantasy art style illustration, dark background, grim reaper holding long sword, full body shot, full length action pose, pink glow around him, skulls everywhere, magical atmosphere, magic the gathering artwork, dungeons &amp; dragons artwork</t>
+  </si>
+  <si>
+    <t>A ring made of gold and diamonds that is inspired by burning man abstraction, and a dmt psychedellic trip. The craziest looking ring you have ever seen. I can't believe this is actual jewelry.</t>
+  </si>
+  <si>
+    <t>Wolf in Chinese armor, majestic and cool, girdle, full body, holding a spear, posing with cool martial arts moves, kung fu, looking at the camera, cartoon animation style, 2D cartoon style, IP, Q version, clean background, normal lighting, masterful work</t>
+  </si>
+  <si>
+    <t>A black dragon with red spikes, its body is surrounded by two large claws and the head has horns on top of it. It stands upright in front of you, with a symmetrical design on a dark gray background as a fullbody portrait in the style of anime and game art, with high contrast. The scales have an orange glow effect, the eyes glinting like firelight. In Japanese letter font at the bottom right corner "256".</t>
+  </si>
+  <si>
+    <t>3d cartoon style, casual game art in the style of pixar animation, A mobile game background with an empty desert sand dune in the center, surrounded by oasis and tribal patterns on either side. The central area is blank for user content or text fields. A small circular frame of green leaves forms around one corner to represent water bodies.</t>
+  </si>
+  <si>
+    <t>tiger-gorilla hybrid mythical creature, full body t-pose</t>
+  </si>
+  <si>
+    <t>icon "start battle" with two crossed swords for the casual game in the style of warcraft</t>
+  </si>
+  <si>
+    <t>2d game battle arena background topview, hearthstone, portrate,3d modeling, 3d, ultra-detailed,C4D, octane rendering, Blender,8K, HD</t>
+  </si>
+  <si>
+    <t>black gemstones, beautiful, jewelry, shine, art,</t>
+  </si>
+  <si>
+    <t>A mobile game screen showing an array of colorful fish icons, Three quarters side Angle，each with unique features and colors. The top left corner reads " sun hat Fish," the middle is for two different types called orangefish &amp; zebrarodophis , bottom right says " find all kind" . Background color blue water and white sky, vibrant style, Pixar animation style, mobile game artstyle</t>
+  </si>
+  <si>
+    <t>There are eight square islands, each decorated in beach style. Cute images, waves, clear blue water, soft sand, sand castles, footprints, palm trees, gulls, clams, crabs, parasols, sunbeds, cute images, fantasy, quarter views, etc</t>
+  </si>
+  <si>
+    <t>A cute Snoopy Dog demon with orange eyes, dressed as the devil and holding fire in one hand and a trident in another. A sticker style cartoon drawing on a white background. The sticker is designed for dungeons &amp; dragons games and features bold lines, vibrant colors, high contrast, strong shadows, sharp edges, and is centered within an outline that matches its shape. It has yellow highlights to emphasize their importance. In front of a white background. Vector graphics in the style of cartoon drawings.</t>
+  </si>
+  <si>
+    <t>Illustration of green flowers and grass in realistic art style, simple vector graphics on white background, high details, high resolution, high contrast, delicate 3D texture,</t>
+  </si>
+  <si>
+    <t>with a three-quarters view from above minimalist，There is a small stream in the middle, with five traditional Chinese New Year shops on both sides, three on the left and two on the right, presented in the form of animated illustrations, cute and dreamy, rendered using Cinema4D, innovative page design, Tokina Opera50mm f/1.4 ff lens, pop elements inspired by cartoons.</t>
+  </si>
+  <si>
+    <t>several stickers in 1 piece, knolling of minimalism style CUTE Cut Cakes, simplified method, no human, pocket stiker, vector image, icon design, shick lines, flat color, white background，no text ，no watermark,</t>
+  </si>
+  <si>
+    <t>Primarch's Lion El’Johnson , warhammer 40k, heroic, handsome, Black armour, gold trim, beige cape, warlord, sword and sheild, huge shield, long blond hair, beard, strong, stoic, knightly, Honor , Dark Angels space marine, chaos, in a battle scene, leading his army of dark green space marines to battle, march in with army, raising sword, battlefield, dynamic battle pose, good, purple armour,, Cinematic, insanely detailed and intricate, hypermaximalist, elegant, super detailed, dynamic pose,, Illustrations by Dave Gallagher, warhammer art style , 16k high definition</t>
+  </si>
+  <si>
+    <t>Single Maplestory-inspired character based on job classes or NPCs, League of Legends emote expressions, clean white background, 2D game art, various emotions (happy, sad, angry, surprised, confused, excited, love-struck, thinking), cute chibi proportions, large expressive eyes, detailed outfit resembling Maplestory classes (warrior, magician, thief, archer, pirate), or distinct NPC style, iconic Maplestory accessories and weapons, vibrant color palette, clear black outlines, merchandise-ready, Korean game aesthetic, high-quality digital illustration, pixel art influence</t>
+  </si>
+  <si>
+    <t>lego figure set, a medieval Knight wearing knights armor and holding a sword, lego marketing art style</t>
+  </si>
+  <si>
+    <t>an elaborate tree house in the jungle, photorealistic, fantasy</t>
+  </si>
+  <si>
+    <t>Full body shot, wide angle, happy girl 3D cartoon character, wearing police uniform and hat, long yellow hair, pistol on waist, simple background, depth details are more realistic</t>
+  </si>
+  <si>
+    <t>Create a Disney-style animated illustration of Brienne of Tarth from Game of Thrones. Show her with a determined expression, short blonde hair, and a large, muscular physique. Dress her in her iconic armor with blue accents and a flowing cloak. Place her against a medieval backdrop such as a forest or battlefield, using vibrant colors and whimsical animation to emphasize her strength, honor, and dedication to knighthood</t>
+  </si>
+  <si>
+    <t>A sleek, black and gold mecha arm with advanced materials and futuristic design elements. The prominent shoulder pad is on the left side of its upper body, while it holds out an open palm for dynamic action poses. It features multiple visible mechanical parts beneath skin, adding to its high-tech appearance. This detailed concept art captures every detail in an ultra-realistic digital rendering style in the style of digital rendering. White background.</t>
+  </si>
+  <si>
+    <t>Cartoon style fairy, big eyes, long legs and long arms but short torso, she wears a very elegant stylish outfit and she has beautifu fairy wings. Background is a fairy village. 29N15.5-81W03</t>
+  </si>
+  <si>
+    <t>top down view, flat-lay view, looking straight down, 2D top-down view, non-perspective top view, view from directly above, in the style of a 3D cartoon, a top view of underwater Ancient Greek stone maze , maze puzzle, Directly above center, with ancient Greek architecture, intricate details, teaming with vibrance and lively colors, surrounded by water, cinematic lighting and detail, unreal engine 5, TOP VIEW</t>
+  </si>
+  <si>
+    <t>Identify gem game interface, user interface design, identify ore game interface, cartoon game, front view</t>
+  </si>
+  <si>
+    <t>The icon of the back, with blue and gold accents on its golden chest armor, is made in League Of Legends style, featuring an illustration style and a symmetrical design. It features exquisite details and high-definition resolution. The background color should be white to highlight the theme. This iconic emblem includes elements such as dragon wings, bird feathers, gemstones, crystals, silver metal lines, and other decorations</t>
+  </si>
+  <si>
+    <t>Dungeon Fantasy Enemy Asset pack simple top-down game characters are 32x32 in size Sprite Sheet</t>
+  </si>
+  <si>
+    <t>A 3D chibi greatsword, made of dark metal and magical crystal, the blade glowing with a faint blue light and featuring dragon scale patterned engravings. The hilt is long and wrapped in black leather, with a dragon eye gemstone at the pommel, emitting a mysterious glow. White background. Crisp details, vibrant colors, Sony DSLR quality, hd quality, vivid style</t>
+  </si>
+  <si>
+    <t>digital 3d avatar, many current fashion accessories, including dresses, shoes, rings, earrings, necklaces, sunglasses, manga inspired</t>
+  </si>
+  <si>
+    <t>Level selection: island, grass, orange, orange-red, yellow, sunset, autumn, top view, isometric, 3D, no characters, cute, cartoon, rich details, exquisite, smooth edges, fluffy enlarged form, cute Everdale style, European and American cartoon style, Octane rendering, C4D, HD,</t>
+  </si>
+  <si>
+    <t>ability icons that provides an acceleration effect,dota2</t>
+  </si>
+  <si>
+    <t>An isometric temple, 3D, OC rendering, tilt shift, C4D, blender, amazing epic ancient theme, cinematic, stunning, vivid, vibrant, unreal engine, concept art, on awhite background</t>
+  </si>
+  <si>
+    <t>A highly detailed 3D render of a temple on the mountain, isolated on a white background as an RPG game asset, unreal engine, ray tracing</t>
+  </si>
+  <si>
+    <t>A highly detailed 3D render of Chinese stone bridge isolated on a white background as an RPG game asset, unreal engine, ray tracing</t>
+  </si>
+  <si>
+    <t>miniature landscape, jade sculpture, mountains, a chinese ancient architecture are in between a cloud, in the style of gold and jade, photorealistic details,Very good light transmittance, miniature sculptures, made of jade, gold and emerald, uhd image, Epic, octane render, beautifully detailed, light diffusion, cinematic shading, cinematic elements</t>
+  </si>
+  <si>
+    <t>genshin impact</t>
+  </si>
+  <si>
+    <t>Create a full body character design in anime style of a young-adult female samurai with ONE katana. Japanese wearing black Meiji era western-style military outfit with blue, white and gold accents. She has long white hair and blue eyes. Background is even or japanese</t>
+  </si>
+  <si>
+    <t>Male Anime Genshin Impact Charater, ocean blue outfit</t>
+  </si>
+  <si>
+    <t>Genshin impact like character standing in Singapore.</t>
+  </si>
+  <si>
+    <t>full-body 3D-rendered of Ganyu game of Genshin Impact, Displayed beside him are all items essential for survival:, 3D game art, realistic usage of light and color, isolated on white background</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>怪物</t>
+  </si>
+  <si>
+    <t>场景</t>
+  </si>
+  <si>
+    <t>宠物</t>
+  </si>
+  <si>
+    <t>地板</t>
+  </si>
+  <si>
+    <t>地图</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>原画</t>
+  </si>
+  <si>
+    <t>原神</t>
+  </si>
+  <si>
+    <t>lue2023-Thor-Portrait-on-white-background-in-the-style-of-color.png</t>
+  </si>
+  <si>
+    <t>xam619-south-park-stick-of-truth-red-hair-elf-red-dragon-noble-.png</t>
+  </si>
+  <si>
+    <t>mecheslav-wolf-with-six-legs-six-feets-six-legs-many-legs-demon.png</t>
+  </si>
+  <si>
+    <t>xiaoming3971-httpss.mj.runFVPXA-AZhLE-Office-space-Blue-desk-Pi.png</t>
+  </si>
+  <si>
+    <t>youkia123.-httpss.mj.runkw4-a4bgRRU-Ferris-Wheel-Animated-Shape.png</t>
+  </si>
+  <si>
+    <t>duonganh8900-cute-funny-deer-silly-Muted-Color-Cartoon-Contour-.png</t>
+  </si>
+  <si>
+    <t>rockstudio01.-httpss.mj.run-O-uv2SNGi8-Best-Quality-Masterpiece.png</t>
+  </si>
+  <si>
+    <t>nikahgeh-Ramadan-Kareem.-Islamic-greeting-card-template-with-Ra.png</t>
+  </si>
+  <si>
+    <t>babbplat-isometric-bright-drinks-cafe-clean-pixel-art.png</t>
+  </si>
+  <si>
+    <t>crazydarkqueen-3d-delicate-vintage-lace-pattern-soft-pale-color.png</t>
+  </si>
+  <si>
+    <t>panghuhuhu-a-viking-statute-with-a-face-okuda-sna-miguel.png</t>
+  </si>
+  <si>
+    <t>daidaidai6024-Monopoly-game-material-grass-wildflowers-bushes-8.png</t>
+  </si>
+  <si>
+    <t>techbegind-American-comic-style-comic-style-characters-full-bod.png</t>
+  </si>
+  <si>
+    <t>gebronicastle-Antarctic-expedition-that-uncovers-ancient-otherw.png</t>
+  </si>
+  <si>
+    <t>frostheart3879-design-a-genshin-impact-character-Zhongli-from-g.png</t>
+  </si>
+  <si>
+    <t>liyi8993-httpss.mj.runqY-2Z7HSrms-the-cartoon-woman-Standing-3D.png</t>
+  </si>
+  <si>
+    <t>sol2570-Isla-Grande-de-Tierra-del-Fuego-map-concept-con-muchas-.png</t>
+  </si>
+  <si>
+    <t>victor-38127-trs-princesas-castelo-bem-detalhado-jardim-animais.png</t>
+  </si>
+  <si>
+    <t>a13816023346-httpss.mj.runnvbaURaU0hg-White-background-Pixar-fi.png</t>
+  </si>
+  <si>
+    <t>shaobenz.bd-Japanese-Art-text-at-start-of-the-description-Cinem.png</t>
+  </si>
+  <si>
+    <t>martin.hwang-httpss.mj.runVCnR4txMBMs-birthday-cake-as-key-visu.png</t>
+  </si>
+  <si>
+    <t>althasizor-Kitsune-Rogue-androgynous-dark-blue-fur-3-tails-red-.png</t>
+  </si>
+  <si>
+    <t>oscar.maia-a-portrait-of-young-black-man-made-out-of-clay-simpl.png</t>
+  </si>
+  <si>
+    <t>mnj8--PS3-isometric.png</t>
+  </si>
+  <si>
+    <t>tpadmin-45-A-red-wolf-robot-running-in-a-river-straightforward-.png</t>
+  </si>
+  <si>
+    <t>gtywzx-httpss.mj.runTTeO7Sa1nG0-3D-simple-pastoral-scenery-simp.png</t>
+  </si>
+  <si>
+    <t>span08.-cute-male-character-65-years-old-character-sheet-Pixar-.png</t>
+  </si>
+  <si>
+    <t>sorrows4488-Marvel-Comic-Style-Wahrhammer-40k-Drukhari-Warhamme.png</t>
+  </si>
+  <si>
+    <t>ravnis-an-anime-girl-with-wings-and-red-dress-in-the-style-of-l.png</t>
+  </si>
+  <si>
+    <t>momowang1231-luxury-jewerly-design-sheetby-bvlgari-sketchparts-.png</t>
+  </si>
+  <si>
+    <t>another77-An-old-male-viking-king-warrior--with-blue-armor-and-.png</t>
+  </si>
+  <si>
+    <t>kawoon-massive-futuristic-armored-indestructible-train-masterpi.png</t>
+  </si>
+  <si>
+    <t>wynshirley-A-lovely-girl-full-body-kite-light-yellow-long-hair-.png</t>
+  </si>
+  <si>
+    <t>jplaysss-a-large-gray-scaled-dragon-bulky-torso-short-snout-dra.png</t>
+  </si>
+  <si>
+    <t>sfenks.-roadside-meadow-2d-flat-front-view-game-sprites-cartoon.png</t>
+  </si>
+  <si>
+    <t>bauseysaucey-a-cartoon-sticker-decal-of-a-u.s.-army-101st-airbo.png</t>
+  </si>
+  <si>
+    <t>itzikkierenvictor-Full-Body-Three-Headed-Bodycute-chinese-boyA-.png</t>
+  </si>
+  <si>
+    <t>gaojinhwa-A-blonde-female-elf-with-long-hair-in-two-braids-wear.png</t>
+  </si>
+  <si>
+    <t>luohaoxuan-httpss.mj.runJpFY89JnzpM-httpss.mj.runnDSGH5HYH6w-Re.png</t>
+  </si>
+  <si>
+    <t>corsairghost-3d-model-realistic-cartoon-island-los-angeles-cali.png</t>
+  </si>
+  <si>
+    <t>gandard-Giant-gold-title-Text--Dragons-Rouges.png</t>
+  </si>
+  <si>
+    <t>tuna.isaiah60-A-small-Chinese-general-Lu-Bu-toy-building-block-.png</t>
+  </si>
+  <si>
+    <t>stanrdx-a-game-where-you-steer-a-cartoony-fishing-vessel-from-a.png</t>
+  </si>
+  <si>
+    <t>salt1611-Minimalistic-plain-house-in-the-style-of-low-poly-punk.png</t>
+  </si>
+  <si>
+    <t>mashtaliero-Full-length-Russian-warrior-clad-in-iron-plate-armo.png</t>
+  </si>
+  <si>
+    <t>aki2514-Puzzle-Match-3-Icon-Objects-2D-Front-Frontal---ar-169--.png</t>
+  </si>
+  <si>
+    <t>danviciart-A-website-design-for-a-fantasy-game-showcasing-chibi.png</t>
+  </si>
+  <si>
+    <t>flash75ua-UI-Design-of-a-match-3-Game-clean-flat-UI-In-the-cent.png</t>
+  </si>
+  <si>
+    <t>raven-wen-Web-stylized-game-interface-design-Zelda-style-UI-des.png</t>
+  </si>
+  <si>
+    <t>xiaojiu0629-54717-A-set-of-2D-game-skill-icons-square-including.png</t>
+  </si>
+  <si>
+    <t>david.ang-top-down-sci-fi-neon-ghoul-in-the-style-of-hyper-ligh.png</t>
+  </si>
+  <si>
+    <t>davidnorris-multiple-character-sprite-sheet-RPG-characters-move.png</t>
+  </si>
+  <si>
+    <t>evilrender-16-bit-pixel-art-grass-tileset-sprite-sprite-sheet--.png</t>
+  </si>
+  <si>
+    <t>bigtrav205-a-pixel-art-collection-of-various-pokemon-characters.png</t>
+  </si>
+  <si>
+    <t>gdacarv-pixel-art-multiple-sprites-low-res-platformer-game-char.png</t>
+  </si>
+  <si>
+    <t>bizarre84-sprite-sheet-of-arrow-button-for-menu-endless-runner-.png</t>
+  </si>
+  <si>
+    <t>walle3581-A-power-up-selection-screen-for-a-match-3-game-displa.png</t>
+  </si>
+  <si>
+    <t>arenbo-tiled-block-grass-medieval-fight-arena-for-low-poly-vect.png</t>
+  </si>
+  <si>
+    <t>cnecula-blocks-for-2D-game-top-view-aztec-theme.png</t>
+  </si>
+  <si>
+    <t>ivanz7613-Pixel-Art-GUI-Elements-sprite-sheet.png</t>
+  </si>
+  <si>
+    <t>oposx-weapon-of-choice-snes-rpg-sprite-sheet.png</t>
+  </si>
+  <si>
+    <t>crypto-dragon-httpss.mj.runi5y5dx-ecV8-photorealistic-happy-cut.png</t>
+  </si>
+  <si>
+    <t>cicelywu-Grim-Reaper-with-black-cloak-and-hood-holding-scythe-i.png</t>
+  </si>
+  <si>
+    <t>abundanceandflow-A-ring-made-of-gold-and-diamonds-that-is-inspi.png</t>
+  </si>
+  <si>
+    <t>zzzwh-013-Wolf-in-Chinese-armor-majestic-and-cool-girdle-full-b.png</t>
+  </si>
+  <si>
+    <t>tomjkr-A-black-dragon-with-red-spikes-its-body-is-surrounded-by.png</t>
+  </si>
+  <si>
+    <t>psd2023-httpss.mj.runN5VH5jHRkP0-3d-cartoon-style-casual-game-a.png</t>
+  </si>
+  <si>
+    <t>jcarl904-tiger-gorilla-hybrid-mythical-creature-full-body-t-pos.png</t>
+  </si>
+  <si>
+    <t>rnddeuscraft-icon-start-battle-with-two-crossed-swords-for-the-.png</t>
+  </si>
+  <si>
+    <t>bigmodels8087-2d-game-battle-arena-background-topview-hearthsto.png</t>
+  </si>
+  <si>
+    <t>tomato-goose-black-gemstones-beautiful-jewelry-shine-art.png</t>
+  </si>
+  <si>
+    <t>gridplus-httpss.mj.run5PReacOGPVQ-A-mobile-game-screen-showing-.png</t>
+  </si>
+  <si>
+    <t>kistch6676-There-are-eight-square-islands-each-decorated-in-bea.png</t>
+  </si>
+  <si>
+    <t>jc01559-A-cute-Snoopy-Dog-demon-with-orange-eyes-dressed-as-the.png</t>
+  </si>
+  <si>
+    <t>johnnyqin.-Illustration-of-green-flowers-and-grass-in-realistic.png</t>
+  </si>
+  <si>
+    <t>fu4lu4wangluo-with-a-three-quarters-view-from-above.png</t>
+  </si>
+  <si>
+    <t>ikekatsu1213-45539-several-stickers-in-1-piece-knolling-of-mini.png</t>
+  </si>
+  <si>
+    <t>woobes.-httpss.mj.runjiIubcAVNkE-httpss.mj.run9zOAzWQQWXs-https.png</t>
+  </si>
+  <si>
+    <t>030.gg-Single-Maplestory-inspired-character-based-on-job-classe.png</t>
+  </si>
+  <si>
+    <t>chris.zo-lego-figure-set-a-medieval-Knight-wearing-knights-armo.png</t>
+  </si>
+  <si>
+    <t>susanv22-an-elaborate-tree-house-in-the-jungle-photorealistic-f.png</t>
+  </si>
+  <si>
+    <t>hsp527364584-Full-body-shot-wide-angle-happy-girl-3D-cartoon-ch.png</t>
+  </si>
+  <si>
+    <t>david.koopman-Create-a-Disney-style-animated-illustration-of-Br.png</t>
+  </si>
+  <si>
+    <t>maodoooo-httpss.mj.runAujYay3lg98-A-sleek-black-and-gold-mecha-.png</t>
+  </si>
+  <si>
+    <t>lioliinyk-31539-Cartoon-style-fairy-big-eyes-long-legs-and-long.png</t>
+  </si>
+  <si>
+    <t>shawnna2222-top-down-view-flat-lay-view-looking-straight-down-2.png</t>
+  </si>
+  <si>
+    <t>kml55555-Identify-gem-game-interface-user-interface-design-iden.png</t>
+  </si>
+  <si>
+    <t>micahu-httpss.mj.runWmx9GCJncNA-The-icon-of-the-back-with-blue-.png</t>
+  </si>
+  <si>
+    <t>oddblotter-Dungeon-Fantasy-Enemy-Asset-pack-simple-top-down-gam.png</t>
+  </si>
+  <si>
+    <t>new-pp-A-3D-chibi-greatsword-made-of-dark-metal-and-magical-cry.png</t>
+  </si>
+  <si>
+    <t>industry3d-digital-3d-avatar-many-current-fashion-accessories-i.png</t>
+  </si>
+  <si>
+    <t>asdhasuhdasdhaks4564565-httpss.mj.runNiHo551p0Uc-httpss.mj.runs.png</t>
+  </si>
+  <si>
+    <t>wakedream-ability-icons-that-provides-an-acceleration-effectd-1ea41635-e050-4ebc-862d-25420a2be4c0-2.png</t>
+  </si>
+  <si>
+    <t>wakedream-An-isometric-temple-3D-OC-rendering-tilt-shift-C4D--6955e3bc-2766-4b21-9fed-72229cf0c5fa-3.png</t>
+  </si>
+  <si>
+    <t>wakedream-A-highly-detailed-3D-render-of-a-temple-on-the-moun.png</t>
+  </si>
+  <si>
+    <t>wakedream-A-highly-detailed-3D-render-of-Chinese-stone-bridge-c071cf61-829d-479a-b145-776a4f095d33-3.png</t>
+  </si>
+  <si>
+    <t>wakedream-miniature-landscape-jade-sculpture-mountains-a-chin.png</t>
+  </si>
+  <si>
+    <t>aucreed-genshin-impact.png</t>
+  </si>
+  <si>
+    <t>deetoshi-Create-a-full-body-character-design-in-anime-style-of-.png</t>
+  </si>
+  <si>
+    <t>grupo1-Male-Anime-Genshin-Impact-Charater-ocean-blue-outfit.png</t>
+  </si>
+  <si>
+    <t>early5445-Genshin-impact-like-character-standing-in-Singapore.-.png</t>
+  </si>
+  <si>
+    <t>edward-zfy-01397-full-body-3D-rendered-of-Ganyu-game-of-Genshin.png</t>
+  </si>
+  <si>
+    <t>lue2023-Thor-Portrait-on-white-background-in-the-style-of-color.html</t>
+  </si>
+  <si>
+    <t>xam619-south-park-stick-of-truth-red-hair-elf-red-dragon-noble-.html</t>
+  </si>
+  <si>
+    <t>mecheslav-wolf-with-six-legs-six-feets-six-legs-many-legs-demon.html</t>
+  </si>
+  <si>
+    <t>xiaoming3971-httpss.mj.runFVPXA-AZhLE-Office-space-Blue-desk-Pi.html</t>
+  </si>
+  <si>
+    <t>youkia123.-httpss.mj.runkw4-a4bgRRU-Ferris-Wheel-Animated-Shape.html</t>
+  </si>
+  <si>
+    <t>duonganh8900-cute-funny-deer-silly-Muted-Color-Cartoon-Contour-.html</t>
+  </si>
+  <si>
+    <t>rockstudio01.-httpss.mj.run-O-uv2SNGi8-Best-Quality-Masterpiece.html</t>
+  </si>
+  <si>
+    <t>nikahgeh-Ramadan-Kareem.-Islamic-greeting-card-template-with-Ra.html</t>
+  </si>
+  <si>
+    <t>babbplat-isometric-bright-drinks-cafe-clean-pixel-art.html</t>
+  </si>
+  <si>
+    <t>crazydarkqueen-3d-delicate-vintage-lace-pattern-soft-pale-color.html</t>
+  </si>
+  <si>
+    <t>panghuhuhu-a-viking-statute-with-a-face-okuda-sna-miguel.html</t>
+  </si>
+  <si>
+    <t>daidaidai6024-Monopoly-game-material-grass-wildflowers-bushes-8.html</t>
+  </si>
+  <si>
+    <t>techbegind-American-comic-style-comic-style-characters-full-bod.html</t>
+  </si>
+  <si>
+    <t>gebronicastle-Antarctic-expedition-that-uncovers-ancient-otherw.html</t>
+  </si>
+  <si>
+    <t>frostheart3879-design-a-genshin-impact-character-Zhongli-from-g.html</t>
+  </si>
+  <si>
+    <t>liyi8993-httpss.mj.runqY-2Z7HSrms-the-cartoon-woman-Standing-3D.html</t>
+  </si>
+  <si>
+    <t>sol2570-Isla-Grande-de-Tierra-del-Fuego-map-concept-con-muchas-.html</t>
+  </si>
+  <si>
+    <t>victor-38127-trs-princesas-castelo-bem-detalhado-jardim-animais.html</t>
+  </si>
+  <si>
+    <t>a13816023346-httpss.mj.runnvbaURaU0hg-White-background-Pixar-fi.html</t>
+  </si>
+  <si>
+    <t>shaobenz.bd-Japanese-Art-text-at-start-of-the-description-Cinem.html</t>
+  </si>
+  <si>
+    <t>martin.hwang-httpss.mj.runVCnR4txMBMs-birthday-cake-as-key-visu.html</t>
+  </si>
+  <si>
+    <t>althasizor-Kitsune-Rogue-androgynous-dark-blue-fur-3-tails-red-.html</t>
+  </si>
+  <si>
+    <t>oscar.maia-a-portrait-of-young-black-man-made-out-of-clay-simpl.html</t>
+  </si>
+  <si>
+    <t>mnj8--PS3-isometric.html</t>
+  </si>
+  <si>
+    <t>tpadmin-45-A-red-wolf-robot-running-in-a-river-straightforward-.html</t>
+  </si>
+  <si>
+    <t>gtywzx-httpss.mj.runTTeO7Sa1nG0-3D-simple-pastoral-scenery-simp.html</t>
+  </si>
+  <si>
+    <t>span08.-cute-male-character-65-years-old-character-sheet-Pixar-.html</t>
+  </si>
+  <si>
+    <t>sorrows4488-Marvel-Comic-Style-Wahrhammer-40k-Drukhari-Warhamme.html</t>
+  </si>
+  <si>
+    <t>ravnis-an-anime-girl-with-wings-and-red-dress-in-the-style-of-l.html</t>
+  </si>
+  <si>
+    <t>momowang1231-luxury-jewerly-design-sheetby-bvlgari-sketchparts-.html</t>
+  </si>
+  <si>
+    <t>another77-An-old-male-viking-king-warrior--with-blue-armor-and-.html</t>
+  </si>
+  <si>
+    <t>kawoon-massive-futuristic-armored-indestructible-train-masterpi.html</t>
+  </si>
+  <si>
+    <t>wynshirley-A-lovely-girl-full-body-kite-light-yellow-long-hair-.html</t>
+  </si>
+  <si>
+    <t>jplaysss-a-large-gray-scaled-dragon-bulky-torso-short-snout-dra.html</t>
+  </si>
+  <si>
+    <t>sfenks.-roadside-meadow-2d-flat-front-view-game-sprites-cartoon.html</t>
+  </si>
+  <si>
+    <t>bauseysaucey-a-cartoon-sticker-decal-of-a-u.s.-army-101st-airbo.html</t>
+  </si>
+  <si>
+    <t>itzikkierenvictor-Full-Body-Three-Headed-Bodycute-chinese-boyA-.html</t>
+  </si>
+  <si>
+    <t>gaojinhwa-A-blonde-female-elf-with-long-hair-in-two-braids-wear.html</t>
+  </si>
+  <si>
+    <t>luohaoxuan-httpss.mj.runJpFY89JnzpM-httpss.mj.runnDSGH5HYH6w-Re.html</t>
+  </si>
+  <si>
+    <t>corsairghost-3d-model-realistic-cartoon-island-los-angeles-cali.html</t>
+  </si>
+  <si>
+    <t>gandard-Giant-gold-title-Text--Dragons-Rouges.html</t>
+  </si>
+  <si>
+    <t>tuna.isaiah60-A-small-Chinese-general-Lu-Bu-toy-building-block-.html</t>
+  </si>
+  <si>
+    <t>stanrdx-a-game-where-you-steer-a-cartoony-fishing-vessel-from-a.html</t>
+  </si>
+  <si>
+    <t>salt1611-Minimalistic-plain-house-in-the-style-of-low-poly-punk.html</t>
+  </si>
+  <si>
+    <t>mashtaliero-Full-length-Russian-warrior-clad-in-iron-plate-armo.html</t>
+  </si>
+  <si>
+    <t>aki2514-Puzzle-Match-3-Icon-Objects-2D-Front-Frontal---ar-169--.html</t>
+  </si>
+  <si>
+    <t>danviciart-A-website-design-for-a-fantasy-game-showcasing-chibi.html</t>
+  </si>
+  <si>
+    <t>flash75ua-UI-Design-of-a-match-3-Game-clean-flat-UI-In-the-cent.html</t>
+  </si>
+  <si>
+    <t>raven-wen-Web-stylized-game-interface-design-Zelda-style-UI-des.html</t>
+  </si>
+  <si>
+    <t>xiaojiu0629-54717-A-set-of-2D-game-skill-icons-square-including.html</t>
+  </si>
+  <si>
+    <t>david.ang-top-down-sci-fi-neon-ghoul-in-the-style-of-hyper-ligh.html</t>
+  </si>
+  <si>
+    <t>davidnorris-multiple-character-sprite-sheet-RPG-characters-move.html</t>
+  </si>
+  <si>
+    <t>evilrender-16-bit-pixel-art-grass-tileset-sprite-sprite-sheet--.html</t>
+  </si>
+  <si>
+    <t>bigtrav205-a-pixel-art-collection-of-various-pokemon-characters.html</t>
+  </si>
+  <si>
+    <t>gdacarv-pixel-art-multiple-sprites-low-res-platformer-game-char.html</t>
+  </si>
+  <si>
+    <t>bizarre84-sprite-sheet-of-arrow-button-for-menu-endless-runner-.html</t>
+  </si>
+  <si>
+    <t>walle3581-A-power-up-selection-screen-for-a-match-3-game-displa.html</t>
+  </si>
+  <si>
+    <t>arenbo-tiled-block-grass-medieval-fight-arena-for-low-poly-vect.html</t>
+  </si>
+  <si>
+    <t>cnecula-blocks-for-2D-game-top-view-aztec-theme.html</t>
+  </si>
+  <si>
+    <t>ivanz7613-Pixel-Art-GUI-Elements-sprite-sheet.html</t>
+  </si>
+  <si>
+    <t>oposx-weapon-of-choice-snes-rpg-sprite-sheet.html</t>
+  </si>
+  <si>
+    <t>crypto-dragon-httpss.mj.runi5y5dx-ecV8-photorealistic-happy-cut.html</t>
+  </si>
+  <si>
+    <t>cicelywu-Grim-Reaper-with-black-cloak-and-hood-holding-scythe-i.html</t>
+  </si>
+  <si>
+    <t>abundanceandflow-A-ring-made-of-gold-and-diamonds-that-is-inspi.html</t>
+  </si>
+  <si>
+    <t>zzzwh-013-Wolf-in-Chinese-armor-majestic-and-cool-girdle-full-b.html</t>
+  </si>
+  <si>
+    <t>tomjkr-A-black-dragon-with-red-spikes-its-body-is-surrounded-by.html</t>
+  </si>
+  <si>
+    <t>psd2023-httpss.mj.runN5VH5jHRkP0-3d-cartoon-style-casual-game-a.html</t>
+  </si>
+  <si>
+    <t>jcarl904-tiger-gorilla-hybrid-mythical-creature-full-body-t-pos.html</t>
+  </si>
+  <si>
+    <t>rnddeuscraft-icon-start-battle-with-two-crossed-swords-for-the-.html</t>
+  </si>
+  <si>
+    <t>bigmodels8087-2d-game-battle-arena-background-topview-hearthsto.html</t>
+  </si>
+  <si>
+    <t>tomato-goose-black-gemstones-beautiful-jewelry-shine-art.html</t>
+  </si>
+  <si>
+    <t>gridplus-httpss.mj.run5PReacOGPVQ-A-mobile-game-screen-showing-.html</t>
+  </si>
+  <si>
+    <t>kistch6676-There-are-eight-square-islands-each-decorated-in-bea.html</t>
+  </si>
+  <si>
+    <t>jc01559-A-cute-Snoopy-Dog-demon-with-orange-eyes-dressed-as-the.html</t>
+  </si>
+  <si>
+    <t>johnnyqin.-Illustration-of-green-flowers-and-grass-in-realistic.html</t>
+  </si>
+  <si>
+    <t>fu4lu4wangluo-with-a-three-quarters-view-from-above.html</t>
+  </si>
+  <si>
+    <t>ikekatsu1213-45539-several-stickers-in-1-piece-knolling-of-mini.html</t>
+  </si>
+  <si>
+    <t>woobes.-httpss.mj.runjiIubcAVNkE-httpss.mj.run9zOAzWQQWXs-https.html</t>
+  </si>
+  <si>
+    <t>030.gg-Single-Maplestory-inspired-character-based-on-job-classe.html</t>
+  </si>
+  <si>
+    <t>chris.zo-lego-figure-set-a-medieval-Knight-wearing-knights-armo.html</t>
+  </si>
+  <si>
+    <t>susanv22-an-elaborate-tree-house-in-the-jungle-photorealistic-f.html</t>
+  </si>
+  <si>
+    <t>hsp527364584-Full-body-shot-wide-angle-happy-girl-3D-cartoon-ch.html</t>
+  </si>
+  <si>
+    <t>david.koopman-Create-a-Disney-style-animated-illustration-of-Br.html</t>
+  </si>
+  <si>
+    <t>maodoooo-httpss.mj.runAujYay3lg98-A-sleek-black-and-gold-mecha-.html</t>
+  </si>
+  <si>
+    <t>lioliinyk-31539-Cartoon-style-fairy-big-eyes-long-legs-and-long.html</t>
+  </si>
+  <si>
+    <t>shawnna2222-top-down-view-flat-lay-view-looking-straight-down-2.html</t>
+  </si>
+  <si>
+    <t>kml55555-Identify-gem-game-interface-user-interface-design-iden.html</t>
+  </si>
+  <si>
+    <t>micahu-httpss.mj.runWmx9GCJncNA-The-icon-of-the-back-with-blue-.html</t>
+  </si>
+  <si>
+    <t>oddblotter-Dungeon-Fantasy-Enemy-Asset-pack-simple-top-down-gam.html</t>
+  </si>
+  <si>
+    <t>new-pp-A-3D-chibi-greatsword-made-of-dark-metal-and-magical-cry.html</t>
+  </si>
+  <si>
+    <t>industry3d-digital-3d-avatar-many-current-fashion-accessories-i.html</t>
+  </si>
+  <si>
+    <t>asdhasuhdasdhaks4564565-httpss.mj.runNiHo551p0Uc-httpss.mj.runs.html</t>
+  </si>
+  <si>
+    <t>wakedream-ability-icons-that-provides-an-acceleration-effectd-1ea41635-e050-4ebc-862d-25420a2be4c0-2.html</t>
+  </si>
+  <si>
+    <t>wakedream-An-isometric-temple-3D-OC-rendering-tilt-shift-C4D--6955e3bc-2766-4b21-9fed-72229cf0c5fa-3.html</t>
+  </si>
+  <si>
+    <t>wakedream-A-highly-detailed-3D-render-of-a-temple-on-the-moun.html</t>
+  </si>
+  <si>
+    <t>wakedream-A-highly-detailed-3D-render-of-Chinese-stone-bridge-c071cf61-829d-479a-b145-776a4f095d33-3.html</t>
+  </si>
+  <si>
+    <t>wakedream-miniature-landscape-jade-sculpture-mountains-a-chin.html</t>
+  </si>
+  <si>
+    <t>aucreed-genshin-impact.html</t>
+  </si>
+  <si>
+    <t>deetoshi-Create-a-full-body-character-design-in-anime-style-of-.html</t>
+  </si>
+  <si>
+    <t>grupo1-Male-Anime-Genshin-Impact-Charater-ocean-blue-outfit.html</t>
+  </si>
+  <si>
+    <t>early5445-Genshin-impact-like-character-standing-in-Singapore.-.html</t>
+  </si>
+  <si>
+    <t>edward-zfy-01397-full-body-3D-rendered-of-Ganyu-game-of-Genshin.html</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>9:16</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>4:5</t>
+  </si>
+  <si>
+    <t>85:128</t>
+  </si>
+  <si>
+    <t>7:9</t>
+  </si>
+  <si>
+    <t>66:91</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>11:16</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>16:9</t>
+  </si>
+  <si>
+    <t>10:17</t>
+  </si>
+  <si>
+    <t>59:81</t>
+  </si>
+  <si>
+    <t>32:47</t>
+  </si>
+  <si>
+    <t>8:5</t>
+  </si>
+  <si>
+    <t>4:7</t>
+  </si>
+  <si>
+    <t>lue2023_Thor_Portrait_on_white_background_in_the_style_of_color_9d9a9723-1fe8-4d6d-b2fe-25a4a50aba3c</t>
+  </si>
+  <si>
+    <t>xam619_south_park_stick_of_truth_red_hair_elf_red_dragon_noble__21f4e018-09a3-476c-a3ea-d6d539b36c38</t>
+  </si>
+  <si>
+    <t>mecheslav_wolf_with_six_legs_six_feets_six_legs_many_legs_demon_cb1c3a10-902c-4e30-ac92-cfbe90ddc494</t>
+  </si>
+  <si>
+    <t>xiaoming3971_httpss.mj.runFVPXA-AZhLE_Office_space_Blue_desk_Pi_5f202efb-fcc8-43c6-b99c-c107afaee670</t>
+  </si>
+  <si>
+    <t>youkia123._httpss.mj.runkw4_a4bgRRU_Ferris_Wheel_Animated_Shape_ecd98db5-7eb0-4001-b9ea-494383e91b29</t>
+  </si>
+  <si>
+    <t>duonganh8900_cute_funny_deer_silly_Muted_Color_Cartoon_Contour__38ee72af-0378-4761-a80e-89fc71d919ce</t>
+  </si>
+  <si>
+    <t>rockstudio01._httpss.mj.run-O-uv2SNGi8_Best_Quality_Masterpiece_135678f9-6004-4587-b390-461858671bbd</t>
+  </si>
+  <si>
+    <t>nikahgeh_Ramadan_Kareem._Islamic_greeting_card_template_with_Ra_ced65dbb-d2d6-4b2e-9ee6-63e6f6963555</t>
+  </si>
+  <si>
+    <t>babbplat_isometric_bright_drinks_cafe_clean_pixel_art_--v_6_6b531f0b-97be-42f8-a3f9-351d848656a4</t>
+  </si>
+  <si>
+    <t>crazydarkqueen_3d_delicate_vintage_lace_pattern_soft_pale_color_90ec29c8-8c86-4532-95aa-3cf7d11acb82</t>
+  </si>
+  <si>
+    <t>panghuhuhu_a_viking_statute_with_a_face_okuda_sna_miguel_styleS_1f81bb91-49b4-421b-bd6e-7becbc0534e7</t>
+  </si>
+  <si>
+    <t>daidaidai6024_Monopoly_game_material_grass_wildflowers_bushes_8_c3a0d1cd-53a4-4fb1-8765-f8f45ace0e7d</t>
+  </si>
+  <si>
+    <t>techbegind_American_comic_style_comic_style_characters_full-bod_f013f897-0a3c-4637-9d79-bad118186a96</t>
+  </si>
+  <si>
+    <t>gebronicastle_Antarctic_expedition_that_uncovers_ancient_otherw_25d68f0f-9b79-4bdf-820a-4398d4d827ef</t>
+  </si>
+  <si>
+    <t>frostheart3879_design_a_genshin_impact_character_Zhongli_from_g_f9c7b8d0-3f0b-4641-b691-accec037a8b4</t>
+  </si>
+  <si>
+    <t>liyi8993_httpss.mj.runqY-2Z7HSrms_the_cartoon_woman_Standing_3D_3714377d-52ee-4270-906d-291d09c28971</t>
+  </si>
+  <si>
+    <t>sol2570_Isla_Grande_de_Tierra_del_Fuego_map_concept_con_muchas__6eaf0d1a-bd2e-4868-b885-9680ced5f152</t>
+  </si>
+  <si>
+    <t>victor_38127_trs_princesas_castelo_bem_detalhado_jardim_animais_dad94d91-4ef6-420c-be32-7613a19bc052</t>
+  </si>
+  <si>
+    <t>a13816023346_httpss.mj.runnvbaURaU0hg_White_background_Pixar_fi_71d39190-aa4d-44cb-bb79-3a50271e19ed</t>
+  </si>
+  <si>
+    <t>shaobenz.bd_Japanese_Art_text_at_start_of_the_description_Cinem_baac81f9-1e1c-43e4-a90b-c12199966807</t>
+  </si>
+  <si>
+    <t>martin.hwang_httpss.mj.runVCnR4txMBMs_birthday_cake_as_key_visu_5552d930-897c-4aa9-b646-40f4e30b71ed</t>
+  </si>
+  <si>
+    <t>althasizor_Kitsune_Rogue_androgynous_dark_blue_fur_3_tails_red__8bf5fcc8-2a87-4510-811c-19565e208b67</t>
+  </si>
+  <si>
+    <t>oscar.maia_a_portrait_of_young_black_man_made_out_of_clay_simpl_fd0abb0d-f562-4b08-8484-239e7adea8e8</t>
+  </si>
+  <si>
+    <t>mnj8__PS3_isometric_--ar_11_--stylize_108_--v_6_21d15935-1ab8-4d3d-a531-d3afa0a0ad53</t>
+  </si>
+  <si>
+    <t>tpadmin_45_A_red_wolf_robot_running_in_a_river_straightforward__d3296845-abba-4495-bf31-e86eb43f09c0</t>
+  </si>
+  <si>
+    <t>gtywzx_httpss.mj.runTTeO7Sa1nG0_3D_simple_pastoral_scenery_simp_5229618f-e6c0-42a1-9eb0-c65f62a6e868</t>
+  </si>
+  <si>
+    <t>span08._cute_male_character_65_years_old_character_sheet_Pixar__4c97ea63-15ff-4919-9ccf-4699274ae159</t>
+  </si>
+  <si>
+    <t>sorrows4488_Marvel_Comic_Style_Wahrhammer_40k_Drukhari_Warhamme_1bd30cb1-cfe4-411a-878a-869ee26d3a23</t>
+  </si>
+  <si>
+    <t>ravnis_an_anime_girl_with_wings_and_red_dress_in_the_style_of_l_b0444fcf-2482-4500-8065-932f1d382c46</t>
+  </si>
+  <si>
+    <t>momowang1231_luxury_jewerly_design_sheetby_bvlgari_sketchparts__99c4924a-7793-4996-ae3f-a12cf11fd10f</t>
+  </si>
+  <si>
+    <t>another77_An_old_male_viking_king_warrior__with_blue_armor_and__1db0f09f-19f1-48e2-bc55-856a582cd524</t>
+  </si>
+  <si>
+    <t>kawoon_massive_futuristic_armored_indestructible_train_masterpi_23f61b80-2d2a-43e0-b24f-c0b32e7bf59a</t>
+  </si>
+  <si>
+    <t>wynshirley_A_lovely_girl_full_body_kite_light_yellow_long_hair__a4642ff1-fa9f-4bb2-94fa-091de8320efa</t>
+  </si>
+  <si>
+    <t>jplaysss_a_large_gray_scaled_dragon_bulky_torso_short_snout_dra_b686e532-b336-4c96-8f9e-6f7a049b5c7b</t>
+  </si>
+  <si>
+    <t>sfenks._roadside_meadow_2d_flat_front_view_game_sprites_cartoon_3a15b05d-db21-47da-9376-4c8e9780bc4b</t>
+  </si>
+  <si>
+    <t>bauseysaucey_a_cartoon_sticker_decal_of_a_u.s._army_101st_airbo_0c6a5703-7c90-485e-b4af-f6a5b69fd407</t>
+  </si>
+  <si>
+    <t>itzikkierenvictor_Full_Body_Three-Headed_Bodycute_chinese_boyA__c3272b5b-4c9a-40df-bc8c-34b31788ad78</t>
+  </si>
+  <si>
+    <t>gaojinhwa_A_blonde_female_elf_with_long_hair_in_two_braids_wear_bd3db998-5866-4fe8-8867-f71b670d9b8c</t>
+  </si>
+  <si>
+    <t>luohaoxuan_httpss.mj.runJpFY89JnzpM_httpss.mj.runnDSGH5HYH6w_Re_d307351b-e6ed-419a-895f-75f24fd7f0df</t>
+  </si>
+  <si>
+    <t>corsairghost_3d_model_realistic_cartoon_island_los_angeles_cali_4d00a408-4c54-420b-9d4d-bd0056e03a2a</t>
+  </si>
+  <si>
+    <t>gandard_Giant_gold_title_Text__Dragons_Rouges_--ar_916_--v_6_a5811d8f-d61b-4539-9fb3-b09efd97aca2</t>
+  </si>
+  <si>
+    <t>tuna.isaiah60_A_small_Chinese_general_Lu_Bu_toy_building_block__bcae73e9-f0a9-4131-ab06-ce6ff860cb8f</t>
+  </si>
+  <si>
+    <t>stanrdx_a_game_where_you_steer_a_cartoony_fishing_vessel_from_a_cfd682a8-4afe-44e7-a772-7c0c7fc81d3e</t>
+  </si>
+  <si>
+    <t>salt1611_Minimalistic_plain_house_in_the_style_of_low-poly_punk_a7f1f146-3e72-45ee-9521-0a034d4af378</t>
+  </si>
+  <si>
+    <t>mashtaliero_Full-length_Russian_warrior_clad_in_iron_plate_armo_b950a78b-d533-4298-838a-39331b1f102f</t>
+  </si>
+  <si>
+    <t>aki2514_Puzzle_Match-3_Icon_Objects_2D_Front_Frontal_--ar_169_-_c5ba328d-93e2-462d-88c2-fceb371bf81e</t>
+  </si>
+  <si>
+    <t>danviciart_A_website_design_for_a_fantasy_game_showcasing_chibi_4681489b-2c0d-4b40-bc5c-3d474ba9e046</t>
+  </si>
+  <si>
+    <t>flash75ua_UI_Design_of_a_match_3_Game_clean_flat_UI_In_the_cent_c47a494b-3f1d-4afe-9137-567e4d4704d8</t>
+  </si>
+  <si>
+    <t>raven_wen_Web_stylized_game_interface_design_Zelda_style_UI_des_6d21797a-aaa1-4df0-bf79-e6577d6911ed</t>
+  </si>
+  <si>
+    <t>xiaojiu0629_54717_A_set_of_2D_game_skill_icons_square_including_e86f805b-aa1f-45d9-9a76-1f7b4b350de8</t>
+  </si>
+  <si>
+    <t>david.ang_top_down_sci-fi_neon_ghoul_in_the_style_of_hyper_ligh_34e1cd95-3fd4-41fe-9b95-46dd78abade5</t>
+  </si>
+  <si>
+    <t>davidnorris_multiple_character_sprite_sheet_RPG_characters_move_d15d44ad-faea-44b5-837d-9ebc8542d8c3</t>
+  </si>
+  <si>
+    <t>evilrender_16-bit_pixel_art_grass_tileset_sprite_sprite_sheet_-_4fca8dd7-a47f-40f3-8f42-7fe439ad7b46</t>
+  </si>
+  <si>
+    <t>bigtrav205_a_pixel_art_collection_of_various_pokemon_characters_cbbd52bd-3db0-449b-8cd2-ae05ef3cbf5a</t>
+  </si>
+  <si>
+    <t>gdacarv_pixel_art_multiple_sprites_low-res_platformer_game_char_bf2fca15-18ad-4803-a1b8-7b8f1606a83a</t>
+  </si>
+  <si>
+    <t>bizarre84_sprite_sheet_of_arrow_button_for_menu_endless_runner__9918d116-71b2-4dc4-96c1-dfea1c5f0c20</t>
+  </si>
+  <si>
+    <t>walle3581_A_power-up_selection_screen_for_a_match-3_game_displa_215fcafa-41a5-4e4c-b82b-600798a16685</t>
+  </si>
+  <si>
+    <t>arenbo_tiled_block_grass_medieval_fight_arena_for_low_poly_vect_41f332e5-a996-44fe-88f3-845e1a4a6b01</t>
+  </si>
+  <si>
+    <t>cnecula_blocks_for_2D_game_top_view_aztec_theme_--v_6_918bc789-c714-4e8f-a81c-9792e8ac7c2c</t>
+  </si>
+  <si>
+    <t>ivanz7613_Pixel_Art_GUI_Elements_sprite_sheet_--v_6_aac18386-6883-4f46-8623-031651b1db58</t>
+  </si>
+  <si>
+    <t>oposx_weapon_of_choice_snes_rpg_sprite_sheet_--v_6_ae6a27ca-984e-4f95-bac5-b20f1e6b1314</t>
+  </si>
+  <si>
+    <t>crypto_dragon_httpss.mj.runi5y5dx_ecV8_photorealistic_happy_cut_a6a157e6-2e56-4b4e-ba63-c1831ddb417b</t>
+  </si>
+  <si>
+    <t>cicelywu_Grim_Reaper_with_black_cloak_and_hood_holding_scythe_i_447a57cf-7150-48b7-9d6c-e61b84e349df</t>
+  </si>
+  <si>
+    <t>abundanceandflow_A_ring_made_of_gold_and_diamonds_that_is_inspi_b9abf0b7-8763-4803-9920-048103cfd8c4</t>
+  </si>
+  <si>
+    <t>zzzwh_013_Wolf_in_Chinese_armor_majestic_and_cool_girdle_full_b_98d157df-8044-495a-a310-b1c3fba54a8c</t>
+  </si>
+  <si>
+    <t>tomjkr_A_black_dragon_with_red_spikes_its_body_is_surrounded_by_dd5a5d8d-e4c5-40a8-a047-1f3ff127d805</t>
+  </si>
+  <si>
+    <t>psd2023_httpss.mj.runN5VH5jHRkP0_3d_cartoon_style_casual_game_a_7d546281-e298-44c1-9bf3-5447ff36566c</t>
+  </si>
+  <si>
+    <t>jcarl904_tiger-gorilla_hybrid_mythical_creature_full_body_t-pos_36fe6510-4d97-4868-9158-d9484cdcb15f</t>
+  </si>
+  <si>
+    <t>rnddeuscraft_icon_start_battle_with_two_crossed_swords_for_the__c63c3796-3f86-472f-9da5-fed3aab446a2</t>
+  </si>
+  <si>
+    <t>bigmodels8087_2d_game_battle_arena_background_topview_hearthsto_19518298-1afa-460b-b87f-25414752c606</t>
+  </si>
+  <si>
+    <t>tomato_goose_black_gemstones_beautiful_jewelry_shine_art_--ar_1_7978ca9e-acd8-4784-8e47-1e0526a32b78</t>
+  </si>
+  <si>
+    <t>gridplus_httpss.mj.run5PReacOGPVQ_A_mobile_game_screen_showing__c5412f35-945d-4f24-83da-69974bfeaa43</t>
+  </si>
+  <si>
+    <t>kistch6676_There_are_eight_square_islands_each_decorated_in_bea_c6ee9025-04ae-4abb-821a-9ac372998bbe</t>
+  </si>
+  <si>
+    <t>jc01559_A_cute_Snoopy_Dog_demon_with_orange_eyes_dressed_as_the_05706186-b383-43c4-9a29-fcea30287f6f</t>
+  </si>
+  <si>
+    <t>johnnyqin._Illustration_of_green_flowers_and_grass_in_realistic_49c64381-a398-4ccb-b697-a32f9dd103d7</t>
+  </si>
+  <si>
+    <t>fu4lu4wangluo_with_a_three-quarters_view_from_above_minimalistT_a2ea7c65-249f-4bde-bbc1-a8c431d1df3c</t>
+  </si>
+  <si>
+    <t>ikekatsu1213_45539_several_stickers_in_1_piece_knolling_of_mini_17bd3cca-d436-4a85-b72d-c759175609e3</t>
+  </si>
+  <si>
+    <t>woobes._httpss.mj.runjiIubcAVNkE_httpss.mj.run9zOAzWQQWXs_https_03cd5a41-ff2d-4254-9835-5afd48968a6b</t>
+  </si>
+  <si>
+    <t>030.gg_Single_Maplestory-inspired_character_based_on_job_classe_2ae80bf3-eba3-4e45-9264-6cfadc0549e4</t>
+  </si>
+  <si>
+    <t>chris.zo_lego_figure_set_a_medieval_Knight_wearing_knights_armo_f26d46ce-887b-4a86-b11e-c20699fba339</t>
+  </si>
+  <si>
+    <t>susanv22_an_elaborate_tree_house_in_the_jungle_photorealistic_f_fa45b31a-2b23-4e87-9439-b65c242edea1</t>
+  </si>
+  <si>
+    <t>hsp527364584_Full_body_shot_wide_angle_happy_girl_3D_cartoon_ch_0c778e14-cfda-4d23-8a2d-f54082bc2662</t>
+  </si>
+  <si>
+    <t>david.koopman_Create_a_Disney-style_animated_illustration_of_Br_7b03848c-44d0-4670-8433-59f141c5c3d2</t>
+  </si>
+  <si>
+    <t>maodoooo_httpss.mj.runAujYay3lg98_A_sleek_black_and_gold_mecha__871a557d-7963-41e2-8e45-44dcba3b4ff1</t>
+  </si>
+  <si>
+    <t>lioliinyk_31539_Cartoon_style_fairy_big_eyes_long_legs_and_long_b2f23693-1f1a-4692-91ad-bf1854ec4b0d</t>
+  </si>
+  <si>
+    <t>shawnna2222_top_down_view_flat-lay_view_looking_straight_down_2_310ddb54-4153-4f93-a195-c3b5d38ff268</t>
+  </si>
+  <si>
+    <t>kml55555_Identify_gem_game_interface_user_interface_design_iden_4b35922e-9f74-42b8-ac94-341aad995891</t>
+  </si>
+  <si>
+    <t>micahu_httpss.mj.runWmx9GCJncNA_The_icon_of_the_back_with_blue__7cfa77cf-3c08-4406-b2ee-a3d187b9e0cd</t>
+  </si>
+  <si>
+    <t>oddblotter_Dungeon_Fantasy_Enemy_Asset_pack_simple_top-down_gam_01520fc0-c341-4cc2-9012-fe3d446a3239</t>
+  </si>
+  <si>
+    <t>new_pp_A_3D_chibi_greatsword_made_of_dark_metal_and_magical_cry_613aaec8-8c5f-4b0b-8b65-854009e15d6a</t>
+  </si>
+  <si>
+    <t>industry3d_digital_3d_avatar_many_current_fashion_accessories_i_e98bf72c-8941-4055-9294-eee3a3bff29c</t>
+  </si>
+  <si>
+    <t>asdhasuhdasdhaks4564565_httpss.mj.runNiHo551p0Uc_httpss.mj.runs_0bd63d3e-20b1-4f5a-b197-a7ca9e021635</t>
+  </si>
+  <si>
+    <t>wakedream_ability_icons_that_provides_an_acceleration_effectd_1ea41635-e050-4ebc-862d-25420a2be4c0_2</t>
+  </si>
+  <si>
+    <t>wakedream_An_isometric_temple_3D_OC_rendering_tilt_shift_C4D__6955e3bc-2766-4b21-9fed-72229cf0c5fa_3</t>
+  </si>
+  <si>
+    <t>wakedream_A_highly_detailed_3D_render_of_a_temple_on_the_moun_40ce6221-1bb8-478f-9fa9-807f5304e504_2</t>
+  </si>
+  <si>
+    <t>wakedream_A_highly_detailed_3D_render_of_Chinese_stone_bridge_c071cf61-829d-479a-b145-776a4f095d33_3</t>
+  </si>
+  <si>
+    <t>wakedream_miniature_landscape_jade_sculpture_mountains_a_chin_26637d1f-66a5-48a6-9c36-46e8c12f68f8_0</t>
+  </si>
+  <si>
+    <t>aucreed_genshin_impact_169_--v_6_5d8f7594-82ec-4967-bdf5-8e35bf596224</t>
+  </si>
+  <si>
+    <t>deetoshi_Create_a_full_body_character_design_in_anime_style_of__5f5a6e19-03be-4bc0-b72c-da81c7545abf</t>
+  </si>
+  <si>
+    <t>grupo1_Male_Anime_Genshin_Impact_Charater_ocean_blue_outfit_--a_1d0a8f73-5c16-46af-9ce2-c73aa0fe93b7</t>
+  </si>
+  <si>
+    <t>early5445_Genshin_impact_like_character_standing_in_Singapore.__5fcc86a2-52cc-4264-9fb3-108d572adfac</t>
+  </si>
+  <si>
+    <t>edward_zfy_01397_full-body_3D-rendered_of_Ganyu_game_of_Genshin_033b5734-29f2-453f-a385-1facee1a449c</t>
+  </si>
+  <si>
+    <t>9d9a9723-1fe8-4d6d-b2fe-25a4a50aba3c</t>
+  </si>
+  <si>
+    <t>21f4e018-09a3-476c-a3ea-d6d539b36c38</t>
+  </si>
+  <si>
+    <t>cb1c3a10-902c-4e30-ac92-cfbe90ddc494</t>
+  </si>
+  <si>
+    <t>5f202efb-fcc8-43c6-b99c-c107afaee670</t>
+  </si>
+  <si>
+    <t>ecd98db5-7eb0-4001-b9ea-494383e91b29</t>
+  </si>
+  <si>
+    <t>38ee72af-0378-4761-a80e-89fc71d919ce</t>
+  </si>
+  <si>
+    <t>135678f9-6004-4587-b390-461858671bbd</t>
+  </si>
+  <si>
+    <t>ced65dbb-d2d6-4b2e-9ee6-63e6f6963555</t>
+  </si>
+  <si>
+    <t>6b531f0b-97be-42f8-a3f9-351d848656a4</t>
+  </si>
+  <si>
+    <t>90ec29c8-8c86-4532-95aa-3cf7d11acb82</t>
+  </si>
+  <si>
+    <t>1f81bb91-49b4-421b-bd6e-7becbc0534e7</t>
+  </si>
+  <si>
+    <t>c3a0d1cd-53a4-4fb1-8765-f8f45ace0e7d</t>
+  </si>
+  <si>
+    <t>f013f897-0a3c-4637-9d79-bad118186a96</t>
+  </si>
+  <si>
+    <t>25d68f0f-9b79-4bdf-820a-4398d4d827ef</t>
+  </si>
+  <si>
+    <t>f9c7b8d0-3f0b-4641-b691-accec037a8b4</t>
+  </si>
+  <si>
+    <t>3714377d-52ee-4270-906d-291d09c28971</t>
+  </si>
+  <si>
+    <t>6eaf0d1a-bd2e-4868-b885-9680ced5f152</t>
+  </si>
+  <si>
+    <t>dad94d91-4ef6-420c-be32-7613a19bc052</t>
+  </si>
+  <si>
+    <t>71d39190-aa4d-44cb-bb79-3a50271e19ed</t>
+  </si>
+  <si>
+    <t>baac81f9-1e1c-43e4-a90b-c12199966807</t>
+  </si>
+  <si>
+    <t>5552d930-897c-4aa9-b646-40f4e30b71ed</t>
+  </si>
+  <si>
+    <t>8bf5fcc8-2a87-4510-811c-19565e208b67</t>
+  </si>
+  <si>
+    <t>fd0abb0d-f562-4b08-8484-239e7adea8e8</t>
+  </si>
+  <si>
+    <t>21d15935-1ab8-4d3d-a531-d3afa0a0ad53</t>
+  </si>
+  <si>
+    <t>d3296845-abba-4495-bf31-e86eb43f09c0</t>
+  </si>
+  <si>
+    <t>5229618f-e6c0-42a1-9eb0-c65f62a6e868</t>
+  </si>
+  <si>
+    <t>4c97ea63-15ff-4919-9ccf-4699274ae159</t>
+  </si>
+  <si>
+    <t>1bd30cb1-cfe4-411a-878a-869ee26d3a23</t>
+  </si>
+  <si>
+    <t>b0444fcf-2482-4500-8065-932f1d382c46</t>
+  </si>
+  <si>
+    <t>99c4924a-7793-4996-ae3f-a12cf11fd10f</t>
+  </si>
+  <si>
+    <t>1db0f09f-19f1-48e2-bc55-856a582cd524</t>
+  </si>
+  <si>
+    <t>23f61b80-2d2a-43e0-b24f-c0b32e7bf59a</t>
+  </si>
+  <si>
+    <t>a4642ff1-fa9f-4bb2-94fa-091de8320efa</t>
+  </si>
+  <si>
+    <t>b686e532-b336-4c96-8f9e-6f7a049b5c7b</t>
+  </si>
+  <si>
+    <t>3a15b05d-db21-47da-9376-4c8e9780bc4b</t>
+  </si>
+  <si>
+    <t>0c6a5703-7c90-485e-b4af-f6a5b69fd407</t>
+  </si>
+  <si>
+    <t>c3272b5b-4c9a-40df-bc8c-34b31788ad78</t>
+  </si>
+  <si>
+    <t>bd3db998-5866-4fe8-8867-f71b670d9b8c</t>
+  </si>
+  <si>
+    <t>d307351b-e6ed-419a-895f-75f24fd7f0df</t>
+  </si>
+  <si>
+    <t>4d00a408-4c54-420b-9d4d-bd0056e03a2a</t>
+  </si>
+  <si>
+    <t>a5811d8f-d61b-4539-9fb3-b09efd97aca2</t>
+  </si>
+  <si>
+    <t>bcae73e9-f0a9-4131-ab06-ce6ff860cb8f</t>
+  </si>
+  <si>
+    <t>cfd682a8-4afe-44e7-a772-7c0c7fc81d3e</t>
+  </si>
+  <si>
+    <t>a7f1f146-3e72-45ee-9521-0a034d4af378</t>
+  </si>
+  <si>
+    <t>b950a78b-d533-4298-838a-39331b1f102f</t>
+  </si>
+  <si>
+    <t>c5ba328d-93e2-462d-88c2-fceb371bf81e</t>
+  </si>
+  <si>
+    <t>4681489b-2c0d-4b40-bc5c-3d474ba9e046</t>
+  </si>
+  <si>
+    <t>c47a494b-3f1d-4afe-9137-567e4d4704d8</t>
+  </si>
+  <si>
+    <t>6d21797a-aaa1-4df0-bf79-e6577d6911ed</t>
+  </si>
+  <si>
+    <t>e86f805b-aa1f-45d9-9a76-1f7b4b350de8</t>
+  </si>
+  <si>
+    <t>34e1cd95-3fd4-41fe-9b95-46dd78abade5</t>
+  </si>
+  <si>
+    <t>d15d44ad-faea-44b5-837d-9ebc8542d8c3</t>
+  </si>
+  <si>
+    <t>4fca8dd7-a47f-40f3-8f42-7fe439ad7b46</t>
+  </si>
+  <si>
+    <t>cbbd52bd-3db0-449b-8cd2-ae05ef3cbf5a</t>
+  </si>
+  <si>
+    <t>bf2fca15-18ad-4803-a1b8-7b8f1606a83a</t>
+  </si>
+  <si>
+    <t>9918d116-71b2-4dc4-96c1-dfea1c5f0c20</t>
+  </si>
+  <si>
+    <t>215fcafa-41a5-4e4c-b82b-600798a16685</t>
+  </si>
+  <si>
+    <t>41f332e5-a996-44fe-88f3-845e1a4a6b01</t>
+  </si>
+  <si>
+    <t>918bc789-c714-4e8f-a81c-9792e8ac7c2c</t>
+  </si>
+  <si>
+    <t>aac18386-6883-4f46-8623-031651b1db58</t>
+  </si>
+  <si>
+    <t>ae6a27ca-984e-4f95-bac5-b20f1e6b1314</t>
+  </si>
+  <si>
+    <t>a6a157e6-2e56-4b4e-ba63-c1831ddb417b</t>
+  </si>
+  <si>
+    <t>447a57cf-7150-48b7-9d6c-e61b84e349df</t>
+  </si>
+  <si>
+    <t>b9abf0b7-8763-4803-9920-048103cfd8c4</t>
+  </si>
+  <si>
+    <t>98d157df-8044-495a-a310-b1c3fba54a8c</t>
+  </si>
+  <si>
+    <t>dd5a5d8d-e4c5-40a8-a047-1f3ff127d805</t>
+  </si>
+  <si>
+    <t>7d546281-e298-44c1-9bf3-5447ff36566c</t>
+  </si>
+  <si>
+    <t>36fe6510-4d97-4868-9158-d9484cdcb15f</t>
+  </si>
+  <si>
+    <t>c63c3796-3f86-472f-9da5-fed3aab446a2</t>
+  </si>
+  <si>
+    <t>19518298-1afa-460b-b87f-25414752c606</t>
+  </si>
+  <si>
+    <t>7978ca9e-acd8-4784-8e47-1e0526a32b78</t>
+  </si>
+  <si>
+    <t>c5412f35-945d-4f24-83da-69974bfeaa43</t>
+  </si>
+  <si>
+    <t>c6ee9025-04ae-4abb-821a-9ac372998bbe</t>
+  </si>
+  <si>
+    <t>05706186-b383-43c4-9a29-fcea30287f6f</t>
+  </si>
+  <si>
+    <t>49c64381-a398-4ccb-b697-a32f9dd103d7</t>
+  </si>
+  <si>
+    <t>a2ea7c65-249f-4bde-bbc1-a8c431d1df3c</t>
+  </si>
+  <si>
+    <t>17bd3cca-d436-4a85-b72d-c759175609e3</t>
+  </si>
+  <si>
+    <t>03cd5a41-ff2d-4254-9835-5afd48968a6b</t>
+  </si>
+  <si>
+    <t>2ae80bf3-eba3-4e45-9264-6cfadc0549e4</t>
+  </si>
+  <si>
+    <t>f26d46ce-887b-4a86-b11e-c20699fba339</t>
+  </si>
+  <si>
+    <t>fa45b31a-2b23-4e87-9439-b65c242edea1</t>
+  </si>
+  <si>
+    <t>0c778e14-cfda-4d23-8a2d-f54082bc2662</t>
+  </si>
+  <si>
+    <t>7b03848c-44d0-4670-8433-59f141c5c3d2</t>
+  </si>
+  <si>
+    <t>871a557d-7963-41e2-8e45-44dcba3b4ff1</t>
+  </si>
+  <si>
+    <t>b2f23693-1f1a-4692-91ad-bf1854ec4b0d</t>
+  </si>
+  <si>
+    <t>310ddb54-4153-4f93-a195-c3b5d38ff268</t>
+  </si>
+  <si>
+    <t>4b35922e-9f74-42b8-ac94-341aad995891</t>
+  </si>
+  <si>
+    <t>7cfa77cf-3c08-4406-b2ee-a3d187b9e0cd</t>
+  </si>
+  <si>
+    <t>01520fc0-c341-4cc2-9012-fe3d446a3239</t>
+  </si>
+  <si>
+    <t>613aaec8-8c5f-4b0b-8b65-854009e15d6a</t>
+  </si>
+  <si>
+    <t>e98bf72c-8941-4055-9294-eee3a3bff29c</t>
+  </si>
+  <si>
+    <t>0bd63d3e-20b1-4f5a-b197-a7ca9e021635</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5d8f7594-82ec-4967-bdf5-8e35bf596224</t>
+  </si>
+  <si>
+    <t>5f5a6e19-03be-4bc0-b72c-da81c7545abf</t>
+  </si>
+  <si>
+    <t>1d0a8f73-5c16-46af-9ce2-c73aa0fe93b7</t>
+  </si>
+  <si>
+    <t>5fcc86a2-52cc-4264-9fb3-108d572adfac</t>
+  </si>
+  <si>
+    <t>033b5734-29f2-453f-a385-1facee1a449c</t>
   </si>
 </sst>
 </file>
@@ -428,13 +2354,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,28 +2388,55 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
+        <v>336</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -491,34 +2444,5688 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>250</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>750</v>
+      </c>
+      <c r="K5" t="s">
+        <v>438</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>123</v>
+      </c>
+      <c r="R5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>124</v>
+      </c>
+      <c r="R6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>250</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>439</v>
+      </c>
+      <c r="L8">
+        <v>0.41</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" t="s">
+        <v>343</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>439</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>32</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>127</v>
+      </c>
+      <c r="R9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" t="s">
+        <v>344</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>128</v>
+      </c>
+      <c r="R10" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" t="s">
+        <v>345</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>129</v>
+      </c>
+      <c r="R11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" t="s">
+        <v>346</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>440</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>130</v>
+      </c>
+      <c r="R12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" t="s">
+        <v>347</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>131</v>
+      </c>
+      <c r="R13" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>439</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>132</v>
+      </c>
+      <c r="R14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>438</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>133</v>
+      </c>
+      <c r="R15" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>438</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>134</v>
+      </c>
+      <c r="R16" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>440</v>
+      </c>
+      <c r="L17">
+        <v>1.2</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>135</v>
+      </c>
+      <c r="R17" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" t="s">
+        <v>352</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>136</v>
+      </c>
+      <c r="R18" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" t="s">
+        <v>353</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>441</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>137</v>
+      </c>
+      <c r="R19" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" t="s">
+        <v>354</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>440</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>138</v>
+      </c>
+      <c r="R20" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" t="s">
+        <v>355</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>438</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>139</v>
+      </c>
+      <c r="R21" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" t="s">
+        <v>356</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>439</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>140</v>
+      </c>
+      <c r="R22" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" t="s">
+        <v>357</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>50</v>
+      </c>
+      <c r="K23" t="s">
+        <v>442</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>141</v>
+      </c>
+      <c r="R23" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" t="s">
+        <v>358</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>438</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>142</v>
+      </c>
+      <c r="R24" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" t="s">
+        <v>359</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>108</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>143</v>
+      </c>
+      <c r="R25" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" t="s">
+        <v>360</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>750</v>
+      </c>
+      <c r="K26" t="s">
+        <v>443</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>144</v>
+      </c>
+      <c r="R26" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" t="s">
+        <v>259</v>
+      </c>
+      <c r="F27" t="s">
+        <v>361</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>750</v>
+      </c>
+      <c r="K27" t="s">
+        <v>440</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>145</v>
+      </c>
+      <c r="R27" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" t="s">
+        <v>362</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>438</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>146</v>
+      </c>
+      <c r="R28" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" t="s">
+        <v>363</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>444</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>147</v>
+      </c>
+      <c r="R29" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" t="s">
+        <v>262</v>
+      </c>
+      <c r="F30" t="s">
+        <v>364</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>443</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>148</v>
+      </c>
+      <c r="R30" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" t="s">
+        <v>263</v>
+      </c>
+      <c r="F31" t="s">
+        <v>365</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>440</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>149</v>
+      </c>
+      <c r="R31" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" t="s">
+        <v>264</v>
+      </c>
+      <c r="F32" t="s">
+        <v>366</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>50</v>
+      </c>
+      <c r="K32" t="s">
+        <v>445</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>150</v>
+      </c>
+      <c r="R32" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" t="s">
+        <v>265</v>
+      </c>
+      <c r="F33" t="s">
+        <v>367</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>250</v>
+      </c>
+      <c r="K33" t="s">
+        <v>439</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>151</v>
+      </c>
+      <c r="R33" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" t="s">
+        <v>266</v>
+      </c>
+      <c r="F34" t="s">
+        <v>368</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>440</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>152</v>
+      </c>
+      <c r="R34" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" t="s">
+        <v>369</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>446</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>153</v>
+      </c>
+      <c r="R35" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" t="s">
+        <v>268</v>
+      </c>
+      <c r="F36" t="s">
+        <v>370</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>439</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>154</v>
+      </c>
+      <c r="R36" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" t="s">
+        <v>269</v>
+      </c>
+      <c r="F37" t="s">
+        <v>371</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>750</v>
+      </c>
+      <c r="K37" t="s">
+        <v>447</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>155</v>
+      </c>
+      <c r="R37" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F38" t="s">
+        <v>372</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>446</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>156</v>
+      </c>
+      <c r="R38" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" t="s">
+        <v>271</v>
+      </c>
+      <c r="F39" t="s">
+        <v>373</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>50</v>
+      </c>
+      <c r="K39" t="s">
+        <v>439</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1000</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>157</v>
+      </c>
+      <c r="R39" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" t="s">
+        <v>374</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>448</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>158</v>
+      </c>
+      <c r="R40" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" t="s">
+        <v>273</v>
+      </c>
+      <c r="F41" t="s">
+        <v>375</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>50</v>
+      </c>
+      <c r="K41" t="s">
+        <v>449</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>159</v>
+      </c>
+      <c r="R41" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" t="s">
+        <v>274</v>
+      </c>
+      <c r="F42" t="s">
+        <v>376</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>439</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>160</v>
+      </c>
+      <c r="R42" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43" t="s">
+        <v>275</v>
+      </c>
+      <c r="F43" t="s">
+        <v>377</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>250</v>
+      </c>
+      <c r="K43" t="s">
+        <v>449</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>161</v>
+      </c>
+      <c r="R43" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" t="s">
+        <v>276</v>
+      </c>
+      <c r="F44" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>450</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>162</v>
+      </c>
+      <c r="R44" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" t="s">
+        <v>277</v>
+      </c>
+      <c r="F45" t="s">
+        <v>379</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>439</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>10</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>163</v>
+      </c>
+      <c r="R45" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" t="s">
+        <v>278</v>
+      </c>
+      <c r="F46" t="s">
+        <v>380</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>250</v>
+      </c>
+      <c r="K46" t="s">
+        <v>439</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>164</v>
+      </c>
+      <c r="R46" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47" t="s">
+        <v>279</v>
+      </c>
+      <c r="F47" t="s">
+        <v>381</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>450</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>165</v>
+      </c>
+      <c r="R47" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" t="s">
+        <v>280</v>
+      </c>
+      <c r="F48" t="s">
+        <v>382</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>439</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>166</v>
+      </c>
+      <c r="R48" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" t="s">
+        <v>281</v>
+      </c>
+      <c r="F49" t="s">
+        <v>383</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>439</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>167</v>
+      </c>
+      <c r="R49" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" t="s">
+        <v>230</v>
+      </c>
+      <c r="E50" t="s">
+        <v>282</v>
+      </c>
+      <c r="F50" t="s">
+        <v>384</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>168</v>
+      </c>
+      <c r="R50" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51" t="s">
+        <v>283</v>
+      </c>
+      <c r="F51" t="s">
+        <v>385</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>100</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>169</v>
+      </c>
+      <c r="R51" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52" t="s">
+        <v>284</v>
+      </c>
+      <c r="F52" t="s">
+        <v>386</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>50</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>170</v>
+      </c>
+      <c r="R52" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" t="s">
+        <v>285</v>
+      </c>
+      <c r="F53" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>171</v>
+      </c>
+      <c r="R53" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" t="s">
+        <v>229</v>
+      </c>
+      <c r="E54" t="s">
+        <v>286</v>
+      </c>
+      <c r="F54" t="s">
+        <v>388</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>172</v>
+      </c>
+      <c r="R54" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" t="s">
+        <v>287</v>
+      </c>
+      <c r="F55" t="s">
+        <v>389</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>100</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>173</v>
+      </c>
+      <c r="R55" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" t="s">
+        <v>222</v>
+      </c>
+      <c r="E56" t="s">
+        <v>288</v>
+      </c>
+      <c r="F56" t="s">
+        <v>390</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>174</v>
+      </c>
+      <c r="R56" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" t="s">
+        <v>289</v>
+      </c>
+      <c r="F57" t="s">
+        <v>391</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>100</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>439</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>175</v>
+      </c>
+      <c r="R57" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58" t="s">
+        <v>392</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>450</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>176</v>
+      </c>
+      <c r="R58" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" t="s">
+        <v>224</v>
+      </c>
+      <c r="E59" t="s">
+        <v>291</v>
+      </c>
+      <c r="F59" t="s">
+        <v>393</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>177</v>
+      </c>
+      <c r="R59" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E60" t="s">
+        <v>292</v>
+      </c>
+      <c r="F60" t="s">
+        <v>394</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>178</v>
+      </c>
+      <c r="R60" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" t="s">
+        <v>224</v>
+      </c>
+      <c r="E61" t="s">
+        <v>293</v>
+      </c>
+      <c r="F61" t="s">
+        <v>395</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>100</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>179</v>
+      </c>
+      <c r="R61" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" t="s">
+        <v>228</v>
+      </c>
+      <c r="E62" t="s">
+        <v>294</v>
+      </c>
+      <c r="F62" t="s">
+        <v>396</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>100</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>180</v>
+      </c>
+      <c r="R62" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63" t="s">
+        <v>295</v>
+      </c>
+      <c r="F63" t="s">
+        <v>397</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>100</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>181</v>
+      </c>
+      <c r="R63" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" t="s">
+        <v>296</v>
+      </c>
+      <c r="F64" t="s">
+        <v>398</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>100</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>750</v>
+      </c>
+      <c r="K64" t="s">
+        <v>451</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>182</v>
+      </c>
+      <c r="R64" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" t="s">
+        <v>297</v>
+      </c>
+      <c r="F65" t="s">
+        <v>399</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>438</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>183</v>
+      </c>
+      <c r="R65" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" t="s">
+        <v>298</v>
+      </c>
+      <c r="F66" t="s">
+        <v>400</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>100</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>439</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>184</v>
+      </c>
+      <c r="R66" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" t="s">
+        <v>299</v>
+      </c>
+      <c r="F67" t="s">
+        <v>401</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>100</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>452</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>185</v>
+      </c>
+      <c r="R67" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" t="s">
+        <v>300</v>
+      </c>
+      <c r="F68" t="s">
+        <v>402</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>100</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>439</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>186</v>
+      </c>
+      <c r="R68" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" t="s">
+        <v>301</v>
+      </c>
+      <c r="F69" t="s">
+        <v>403</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>100</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>438</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>187</v>
+      </c>
+      <c r="R69" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" t="s">
+        <v>230</v>
+      </c>
+      <c r="E70" t="s">
+        <v>302</v>
+      </c>
+      <c r="F70" t="s">
+        <v>404</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>100</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>188</v>
+      </c>
+      <c r="R70" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" t="s">
+        <v>303</v>
+      </c>
+      <c r="F71" t="s">
+        <v>405</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>100</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>180</v>
+      </c>
+      <c r="K71" t="s">
+        <v>450</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>189</v>
+      </c>
+      <c r="R71" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" t="s">
+        <v>228</v>
+      </c>
+      <c r="E72" t="s">
+        <v>304</v>
+      </c>
+      <c r="F72" t="s">
+        <v>406</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>100</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>190</v>
+      </c>
+      <c r="R72" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" t="s">
+        <v>229</v>
+      </c>
+      <c r="E73" t="s">
+        <v>305</v>
+      </c>
+      <c r="F73" t="s">
+        <v>407</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>100</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>50</v>
+      </c>
+      <c r="K73" t="s">
+        <v>453</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>191</v>
+      </c>
+      <c r="R73" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" t="s">
+        <v>192</v>
+      </c>
+      <c r="D74" t="s">
+        <v>224</v>
+      </c>
+      <c r="E74" t="s">
+        <v>306</v>
+      </c>
+      <c r="F74" t="s">
+        <v>408</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>192</v>
+      </c>
+      <c r="R74" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" t="s">
+        <v>223</v>
+      </c>
+      <c r="E75" t="s">
+        <v>307</v>
+      </c>
+      <c r="F75" t="s">
+        <v>409</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>100</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>193</v>
+      </c>
+      <c r="R75" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" t="s">
+        <v>194</v>
+      </c>
+      <c r="D76" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" t="s">
+        <v>308</v>
+      </c>
+      <c r="F76" t="s">
+        <v>410</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>100</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>450</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>194</v>
+      </c>
+      <c r="R76" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" t="s">
+        <v>309</v>
+      </c>
+      <c r="F77" t="s">
+        <v>411</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>100</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>448</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>195</v>
+      </c>
+      <c r="R77" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" t="s">
+        <v>231</v>
+      </c>
+      <c r="E78" t="s">
+        <v>310</v>
+      </c>
+      <c r="F78" t="s">
+        <v>412</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>100</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>200</v>
+      </c>
+      <c r="K78" t="s">
+        <v>440</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>196</v>
+      </c>
+      <c r="R78" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" t="s">
+        <v>222</v>
+      </c>
+      <c r="E79" t="s">
+        <v>311</v>
+      </c>
+      <c r="F79" t="s">
+        <v>413</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>100</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>250</v>
+      </c>
+      <c r="K79" t="s">
+        <v>439</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>30</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>197</v>
+      </c>
+      <c r="R79" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" t="s">
+        <v>222</v>
+      </c>
+      <c r="E80" t="s">
+        <v>312</v>
+      </c>
+      <c r="F80" t="s">
+        <v>414</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>750</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>198</v>
+      </c>
+      <c r="R80" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" t="s">
+        <v>199</v>
+      </c>
+      <c r="D81" t="s">
+        <v>222</v>
+      </c>
+      <c r="E81" t="s">
+        <v>313</v>
+      </c>
+      <c r="F81" t="s">
+        <v>415</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>100</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>400</v>
+      </c>
+      <c r="K81" t="s">
+        <v>439</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>199</v>
+      </c>
+      <c r="R81" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" t="s">
+        <v>224</v>
+      </c>
+      <c r="E82" t="s">
+        <v>314</v>
+      </c>
+      <c r="F82" t="s">
+        <v>416</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>100</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>438</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>200</v>
+      </c>
+      <c r="R82" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" t="s">
+        <v>222</v>
+      </c>
+      <c r="E83" t="s">
+        <v>315</v>
+      </c>
+      <c r="F83" t="s">
+        <v>417</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>100</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>750</v>
+      </c>
+      <c r="K83" t="s">
+        <v>440</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>201</v>
+      </c>
+      <c r="R83" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" t="s">
+        <v>202</v>
+      </c>
+      <c r="D84" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" t="s">
+        <v>316</v>
+      </c>
+      <c r="F84" t="s">
+        <v>418</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>100</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1000</v>
+      </c>
+      <c r="K84" t="s">
+        <v>439</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>100</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>202</v>
+      </c>
+      <c r="R84" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" t="s">
+        <v>203</v>
+      </c>
+      <c r="D85" t="s">
+        <v>232</v>
+      </c>
+      <c r="E85" t="s">
+        <v>317</v>
+      </c>
+      <c r="F85" t="s">
+        <v>419</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>100</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1000</v>
+      </c>
+      <c r="K85" t="s">
+        <v>440</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>203</v>
+      </c>
+      <c r="R85" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" t="s">
+        <v>222</v>
+      </c>
+      <c r="E86" t="s">
+        <v>318</v>
+      </c>
+      <c r="F86" t="s">
+        <v>420</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>100</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>250</v>
+      </c>
+      <c r="K86" t="s">
+        <v>439</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>204</v>
+      </c>
+      <c r="R86" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" t="s">
+        <v>224</v>
+      </c>
+      <c r="E87" t="s">
+        <v>319</v>
+      </c>
+      <c r="F87" t="s">
+        <v>421</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>100</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>440</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>205</v>
+      </c>
+      <c r="R87" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" t="s">
+        <v>230</v>
+      </c>
+      <c r="E88" t="s">
+        <v>320</v>
+      </c>
+      <c r="F88" t="s">
+        <v>422</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>100</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>250</v>
+      </c>
+      <c r="K88" t="s">
+        <v>454</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>206</v>
+      </c>
+      <c r="R88" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" t="s">
+        <v>230</v>
+      </c>
+      <c r="E89" t="s">
+        <v>321</v>
+      </c>
+      <c r="F89" t="s">
+        <v>423</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>207</v>
+      </c>
+      <c r="R89" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" t="s">
+        <v>230</v>
+      </c>
+      <c r="E90" t="s">
+        <v>322</v>
+      </c>
+      <c r="F90" t="s">
+        <v>424</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>100</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>455</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>208</v>
+      </c>
+      <c r="R90" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" t="s">
+        <v>209</v>
+      </c>
+      <c r="D91" t="s">
+        <v>230</v>
+      </c>
+      <c r="E91" t="s">
+        <v>323</v>
+      </c>
+      <c r="F91" t="s">
+        <v>425</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>100</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>439</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>209</v>
+      </c>
+      <c r="R91" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" t="s">
+        <v>210</v>
+      </c>
+      <c r="D92" t="s">
+        <v>222</v>
+      </c>
+      <c r="E92" t="s">
+        <v>324</v>
+      </c>
+      <c r="F92" t="s">
+        <v>426</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>100</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>441</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>210</v>
+      </c>
+      <c r="R92" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" t="s">
+        <v>211</v>
+      </c>
+      <c r="D93" t="s">
+        <v>224</v>
+      </c>
+      <c r="E93" t="s">
+        <v>325</v>
+      </c>
+      <c r="F93" t="s">
+        <v>427</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>100</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>211</v>
+      </c>
+      <c r="R93" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" t="s">
+        <v>230</v>
+      </c>
+      <c r="E94" t="s">
+        <v>326</v>
+      </c>
+      <c r="F94" t="s">
+        <v>428</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>212</v>
+      </c>
+      <c r="R94" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" t="s">
+        <v>224</v>
+      </c>
+      <c r="E95" t="s">
+        <v>327</v>
+      </c>
+      <c r="F95" t="s">
+        <v>429</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>100</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>213</v>
+      </c>
+      <c r="R95" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" t="s">
+        <v>224</v>
+      </c>
+      <c r="E96" t="s">
+        <v>328</v>
+      </c>
+      <c r="F96" t="s">
+        <v>430</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>100</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>214</v>
+      </c>
+      <c r="R96" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" t="s">
+        <v>215</v>
+      </c>
+      <c r="D97" t="s">
+        <v>224</v>
+      </c>
+      <c r="E97" t="s">
+        <v>329</v>
+      </c>
+      <c r="F97" t="s">
+        <v>431</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>440</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>215</v>
+      </c>
+      <c r="R97" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" t="s">
+        <v>224</v>
+      </c>
+      <c r="E98" t="s">
+        <v>330</v>
+      </c>
+      <c r="F98" t="s">
+        <v>432</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>440</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>216</v>
+      </c>
+      <c r="R98" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" t="s">
+        <v>233</v>
+      </c>
+      <c r="E99" t="s">
+        <v>331</v>
+      </c>
+      <c r="F99" t="s">
+        <v>433</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>100</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>217</v>
+      </c>
+      <c r="R99" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" t="s">
+        <v>218</v>
+      </c>
+      <c r="D100" t="s">
+        <v>233</v>
+      </c>
+      <c r="E100" t="s">
+        <v>332</v>
+      </c>
+      <c r="F100" t="s">
+        <v>434</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>100</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>441</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>218</v>
+      </c>
+      <c r="R100" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" t="s">
+        <v>233</v>
+      </c>
+      <c r="E101" t="s">
+        <v>333</v>
+      </c>
+      <c r="F101" t="s">
+        <v>435</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>439</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>219</v>
+      </c>
+      <c r="R101" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" t="s">
+        <v>233</v>
+      </c>
+      <c r="E102" t="s">
+        <v>334</v>
+      </c>
+      <c r="F102" t="s">
+        <v>436</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>100</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>220</v>
+      </c>
+      <c r="R102" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" t="s">
+        <v>221</v>
+      </c>
+      <c r="D103" t="s">
+        <v>233</v>
+      </c>
+      <c r="E103" t="s">
+        <v>335</v>
+      </c>
+      <c r="F103" t="s">
+        <v>437</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>100</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>450</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>221</v>
+      </c>
+      <c r="R103" t="s">
+        <v>657</v>
       </c>
     </row>
   </sheetData>

--- a/info.xlsx
+++ b/info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="663">
   <si>
     <t>index</t>
   </si>
@@ -1337,6 +1337,21 @@
   </si>
   <si>
     <t>edward-zfy-01397-full-body-3D-rendered-of-Ganyu-game-of-Genshin.html</t>
+  </si>
+  <si>
+    <t>2024-08-15 15:27:27</t>
+  </si>
+  <si>
+    <t>2024-08-15 15:27:28</t>
+  </si>
+  <si>
+    <t>2024-08-15 15:27:29</t>
+  </si>
+  <si>
+    <t>2024-08-15 15:27:30</t>
+  </si>
+  <si>
+    <t>2024-08-15 15:27:31</t>
   </si>
   <si>
     <t>2:3</t>
@@ -2435,8 +2450,8 @@
       <c r="F2" t="s">
         <v>336</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>438</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -2463,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="Q2" t="s">
         <v>120</v>
       </c>
       <c r="R2" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2491,8 +2506,8 @@
       <c r="F3" t="s">
         <v>337</v>
       </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="G3" t="s">
+        <v>438</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -2519,13 +2534,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="Q3" t="s">
         <v>121</v>
       </c>
       <c r="R3" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2547,8 +2562,8 @@
       <c r="F4" t="s">
         <v>338</v>
       </c>
-      <c r="G4">
-        <v>0</v>
+      <c r="G4" t="s">
+        <v>438</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -2575,13 +2590,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="Q4" t="s">
         <v>122</v>
       </c>
       <c r="R4" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2603,8 +2618,8 @@
       <c r="F5" t="s">
         <v>339</v>
       </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="G5" t="s">
+        <v>438</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -2616,7 +2631,7 @@
         <v>750</v>
       </c>
       <c r="K5" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2631,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="Q5" t="s">
         <v>123</v>
       </c>
       <c r="R5" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2659,8 +2674,8 @@
       <c r="F6" t="s">
         <v>340</v>
       </c>
-      <c r="G6">
-        <v>0</v>
+      <c r="G6" t="s">
+        <v>438</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -2687,13 +2702,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="Q6" t="s">
         <v>124</v>
       </c>
       <c r="R6" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2715,8 +2730,8 @@
       <c r="F7" t="s">
         <v>341</v>
       </c>
-      <c r="G7">
-        <v>0</v>
+      <c r="G7" t="s">
+        <v>438</v>
       </c>
       <c r="H7">
         <v>100</v>
@@ -2743,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Q7" t="s">
         <v>125</v>
       </c>
       <c r="R7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2771,8 +2786,8 @@
       <c r="F8" t="s">
         <v>342</v>
       </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="G8" t="s">
+        <v>438</v>
       </c>
       <c r="H8">
         <v>100</v>
@@ -2784,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L8">
         <v>0.41</v>
@@ -2799,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="Q8" t="s">
         <v>126</v>
       </c>
       <c r="R8" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2827,8 +2842,8 @@
       <c r="F9" t="s">
         <v>343</v>
       </c>
-      <c r="G9">
-        <v>0</v>
+      <c r="G9" t="s">
+        <v>438</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -2840,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2855,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="Q9" t="s">
         <v>127</v>
       </c>
       <c r="R9" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2883,8 +2898,8 @@
       <c r="F10" t="s">
         <v>344</v>
       </c>
-      <c r="G10">
-        <v>0</v>
+      <c r="G10" t="s">
+        <v>438</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -2911,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="Q10" t="s">
         <v>128</v>
       </c>
       <c r="R10" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2939,8 +2954,8 @@
       <c r="F11" t="s">
         <v>345</v>
       </c>
-      <c r="G11">
-        <v>0</v>
+      <c r="G11" t="s">
+        <v>438</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -2967,13 +2982,13 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="Q11" t="s">
         <v>129</v>
       </c>
       <c r="R11" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2995,8 +3010,8 @@
       <c r="F12" t="s">
         <v>346</v>
       </c>
-      <c r="G12">
-        <v>0</v>
+      <c r="G12" t="s">
+        <v>438</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -3008,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3023,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Q12" t="s">
         <v>130</v>
       </c>
       <c r="R12" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3051,8 +3066,8 @@
       <c r="F13" t="s">
         <v>347</v>
       </c>
-      <c r="G13">
-        <v>0</v>
+      <c r="G13" t="s">
+        <v>438</v>
       </c>
       <c r="H13">
         <v>100</v>
@@ -3079,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q13" t="s">
         <v>131</v>
       </c>
       <c r="R13" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3107,8 +3122,8 @@
       <c r="F14" t="s">
         <v>348</v>
       </c>
-      <c r="G14">
-        <v>0</v>
+      <c r="G14" t="s">
+        <v>438</v>
       </c>
       <c r="H14">
         <v>100</v>
@@ -3120,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -3135,13 +3150,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="Q14" t="s">
         <v>132</v>
       </c>
       <c r="R14" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3163,8 +3178,8 @@
       <c r="F15" t="s">
         <v>349</v>
       </c>
-      <c r="G15">
-        <v>0</v>
+      <c r="G15" t="s">
+        <v>438</v>
       </c>
       <c r="H15">
         <v>100</v>
@@ -3176,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -3191,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="Q15" t="s">
         <v>133</v>
       </c>
       <c r="R15" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3219,8 +3234,8 @@
       <c r="F16" t="s">
         <v>350</v>
       </c>
-      <c r="G16">
-        <v>0</v>
+      <c r="G16" t="s">
+        <v>438</v>
       </c>
       <c r="H16">
         <v>100</v>
@@ -3232,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -3247,13 +3262,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="Q16" t="s">
         <v>134</v>
       </c>
       <c r="R16" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3275,8 +3290,8 @@
       <c r="F17" t="s">
         <v>351</v>
       </c>
-      <c r="G17">
-        <v>0</v>
+      <c r="G17" t="s">
+        <v>439</v>
       </c>
       <c r="H17">
         <v>100</v>
@@ -3288,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L17">
         <v>1.2</v>
@@ -3303,13 +3318,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="Q17" t="s">
         <v>135</v>
       </c>
       <c r="R17" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3331,8 +3346,8 @@
       <c r="F18" t="s">
         <v>352</v>
       </c>
-      <c r="G18">
-        <v>0</v>
+      <c r="G18" t="s">
+        <v>439</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -3359,13 +3374,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="Q18" t="s">
         <v>136</v>
       </c>
       <c r="R18" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3387,8 +3402,8 @@
       <c r="F19" t="s">
         <v>353</v>
       </c>
-      <c r="G19">
-        <v>0</v>
+      <c r="G19" t="s">
+        <v>439</v>
       </c>
       <c r="H19">
         <v>100</v>
@@ -3400,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3415,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="Q19" t="s">
         <v>137</v>
       </c>
       <c r="R19" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3443,8 +3458,8 @@
       <c r="F20" t="s">
         <v>354</v>
       </c>
-      <c r="G20">
-        <v>0</v>
+      <c r="G20" t="s">
+        <v>439</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -3456,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L20">
         <v>0.5</v>
@@ -3471,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="Q20" t="s">
         <v>138</v>
       </c>
       <c r="R20" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -3499,8 +3514,8 @@
       <c r="F21" t="s">
         <v>355</v>
       </c>
-      <c r="G21">
-        <v>0</v>
+      <c r="G21" t="s">
+        <v>439</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -3512,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3527,13 +3542,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="Q21" t="s">
         <v>139</v>
       </c>
       <c r="R21" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3555,8 +3570,8 @@
       <c r="F22" t="s">
         <v>356</v>
       </c>
-      <c r="G22">
-        <v>0</v>
+      <c r="G22" t="s">
+        <v>439</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -3568,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3583,13 +3598,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="Q22" t="s">
         <v>140</v>
       </c>
       <c r="R22" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3611,8 +3626,8 @@
       <c r="F23" t="s">
         <v>357</v>
       </c>
-      <c r="G23">
-        <v>0</v>
+      <c r="G23" t="s">
+        <v>439</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -3624,7 +3639,7 @@
         <v>50</v>
       </c>
       <c r="K23" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3639,13 +3654,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="Q23" t="s">
         <v>141</v>
       </c>
       <c r="R23" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3667,8 +3682,8 @@
       <c r="F24" t="s">
         <v>358</v>
       </c>
-      <c r="G24">
-        <v>0</v>
+      <c r="G24" t="s">
+        <v>439</v>
       </c>
       <c r="H24">
         <v>100</v>
@@ -3680,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3695,13 +3710,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="Q24" t="s">
         <v>142</v>
       </c>
       <c r="R24" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3723,8 +3738,8 @@
       <c r="F25" t="s">
         <v>359</v>
       </c>
-      <c r="G25">
-        <v>0</v>
+      <c r="G25" t="s">
+        <v>439</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -3751,13 +3766,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Q25" t="s">
         <v>143</v>
       </c>
       <c r="R25" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3779,8 +3794,8 @@
       <c r="F26" t="s">
         <v>360</v>
       </c>
-      <c r="G26">
-        <v>0</v>
+      <c r="G26" t="s">
+        <v>439</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -3792,7 +3807,7 @@
         <v>750</v>
       </c>
       <c r="K26" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3807,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="Q26" t="s">
         <v>144</v>
       </c>
       <c r="R26" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3835,8 +3850,8 @@
       <c r="F27" t="s">
         <v>361</v>
       </c>
-      <c r="G27">
-        <v>0</v>
+      <c r="G27" t="s">
+        <v>439</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -3848,7 +3863,7 @@
         <v>750</v>
       </c>
       <c r="K27" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -3863,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="Q27" t="s">
         <v>145</v>
       </c>
       <c r="R27" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3891,8 +3906,8 @@
       <c r="F28" t="s">
         <v>362</v>
       </c>
-      <c r="G28">
-        <v>0</v>
+      <c r="G28" t="s">
+        <v>439</v>
       </c>
       <c r="H28">
         <v>100</v>
@@ -3904,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3919,13 +3934,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="Q28" t="s">
         <v>146</v>
       </c>
       <c r="R28" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3947,8 +3962,8 @@
       <c r="F29" t="s">
         <v>363</v>
       </c>
-      <c r="G29">
-        <v>0</v>
+      <c r="G29" t="s">
+        <v>439</v>
       </c>
       <c r="H29">
         <v>100</v>
@@ -3960,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3975,13 +3990,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="Q29" t="s">
         <v>147</v>
       </c>
       <c r="R29" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -4003,8 +4018,8 @@
       <c r="F30" t="s">
         <v>364</v>
       </c>
-      <c r="G30">
-        <v>0</v>
+      <c r="G30" t="s">
+        <v>439</v>
       </c>
       <c r="H30">
         <v>100</v>
@@ -4016,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -4031,13 +4046,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="Q30" t="s">
         <v>148</v>
       </c>
       <c r="R30" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -4059,8 +4074,8 @@
       <c r="F31" t="s">
         <v>365</v>
       </c>
-      <c r="G31">
-        <v>0</v>
+      <c r="G31" t="s">
+        <v>439</v>
       </c>
       <c r="H31">
         <v>100</v>
@@ -4072,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -4087,13 +4102,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="Q31" t="s">
         <v>149</v>
       </c>
       <c r="R31" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -4115,8 +4130,8 @@
       <c r="F32" t="s">
         <v>366</v>
       </c>
-      <c r="G32">
-        <v>0</v>
+      <c r="G32" t="s">
+        <v>439</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -4128,7 +4143,7 @@
         <v>50</v>
       </c>
       <c r="K32" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -4143,13 +4158,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="Q32" t="s">
         <v>150</v>
       </c>
       <c r="R32" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -4171,8 +4186,8 @@
       <c r="F33" t="s">
         <v>367</v>
       </c>
-      <c r="G33">
-        <v>0</v>
+      <c r="G33" t="s">
+        <v>439</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -4184,7 +4199,7 @@
         <v>250</v>
       </c>
       <c r="K33" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4199,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="Q33" t="s">
         <v>151</v>
       </c>
       <c r="R33" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -4227,8 +4242,8 @@
       <c r="F34" t="s">
         <v>368</v>
       </c>
-      <c r="G34">
-        <v>0</v>
+      <c r="G34" t="s">
+        <v>439</v>
       </c>
       <c r="H34">
         <v>100</v>
@@ -4240,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4255,13 +4270,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="Q34" t="s">
         <v>152</v>
       </c>
       <c r="R34" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -4283,8 +4298,8 @@
       <c r="F35" t="s">
         <v>369</v>
       </c>
-      <c r="G35">
-        <v>0</v>
+      <c r="G35" t="s">
+        <v>439</v>
       </c>
       <c r="H35">
         <v>100</v>
@@ -4296,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -4311,13 +4326,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="Q35" t="s">
         <v>153</v>
       </c>
       <c r="R35" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -4339,8 +4354,8 @@
       <c r="F36" t="s">
         <v>370</v>
       </c>
-      <c r="G36">
-        <v>0</v>
+      <c r="G36" t="s">
+        <v>439</v>
       </c>
       <c r="H36">
         <v>100</v>
@@ -4352,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -4367,13 +4382,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="Q36" t="s">
         <v>154</v>
       </c>
       <c r="R36" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -4395,8 +4410,8 @@
       <c r="F37" t="s">
         <v>371</v>
       </c>
-      <c r="G37">
-        <v>0</v>
+      <c r="G37" t="s">
+        <v>439</v>
       </c>
       <c r="H37">
         <v>100</v>
@@ -4408,7 +4423,7 @@
         <v>750</v>
       </c>
       <c r="K37" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -4423,13 +4438,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="Q37" t="s">
         <v>155</v>
       </c>
       <c r="R37" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -4451,8 +4466,8 @@
       <c r="F38" t="s">
         <v>372</v>
       </c>
-      <c r="G38">
-        <v>0</v>
+      <c r="G38" t="s">
+        <v>439</v>
       </c>
       <c r="H38">
         <v>100</v>
@@ -4464,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4479,13 +4494,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="Q38" t="s">
         <v>156</v>
       </c>
       <c r="R38" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4507,8 +4522,8 @@
       <c r="F39" t="s">
         <v>373</v>
       </c>
-      <c r="G39">
-        <v>0</v>
+      <c r="G39" t="s">
+        <v>439</v>
       </c>
       <c r="H39">
         <v>100</v>
@@ -4520,7 +4535,7 @@
         <v>50</v>
       </c>
       <c r="K39" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4535,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="Q39" t="s">
         <v>157</v>
       </c>
       <c r="R39" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4563,8 +4578,8 @@
       <c r="F40" t="s">
         <v>374</v>
       </c>
-      <c r="G40">
-        <v>0</v>
+      <c r="G40" t="s">
+        <v>439</v>
       </c>
       <c r="H40">
         <v>100</v>
@@ -4576,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4591,13 +4606,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="Q40" t="s">
         <v>158</v>
       </c>
       <c r="R40" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4619,8 +4634,8 @@
       <c r="F41" t="s">
         <v>375</v>
       </c>
-      <c r="G41">
-        <v>0</v>
+      <c r="G41" t="s">
+        <v>439</v>
       </c>
       <c r="H41">
         <v>100</v>
@@ -4632,7 +4647,7 @@
         <v>50</v>
       </c>
       <c r="K41" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4647,13 +4662,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="Q41" t="s">
         <v>159</v>
       </c>
       <c r="R41" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4675,8 +4690,8 @@
       <c r="F42" t="s">
         <v>376</v>
       </c>
-      <c r="G42">
-        <v>0</v>
+      <c r="G42" t="s">
+        <v>439</v>
       </c>
       <c r="H42">
         <v>100</v>
@@ -4688,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4703,13 +4718,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="Q42" t="s">
         <v>160</v>
       </c>
       <c r="R42" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4731,8 +4746,8 @@
       <c r="F43" t="s">
         <v>377</v>
       </c>
-      <c r="G43">
-        <v>0</v>
+      <c r="G43" t="s">
+        <v>439</v>
       </c>
       <c r="H43">
         <v>100</v>
@@ -4744,7 +4759,7 @@
         <v>250</v>
       </c>
       <c r="K43" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4759,13 +4774,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="Q43" t="s">
         <v>161</v>
       </c>
       <c r="R43" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4787,8 +4802,8 @@
       <c r="F44" t="s">
         <v>378</v>
       </c>
-      <c r="G44">
-        <v>0</v>
+      <c r="G44" t="s">
+        <v>439</v>
       </c>
       <c r="H44">
         <v>100</v>
@@ -4800,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4815,13 +4830,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="Q44" t="s">
         <v>162</v>
       </c>
       <c r="R44" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4843,8 +4858,8 @@
       <c r="F45" t="s">
         <v>379</v>
       </c>
-      <c r="G45">
-        <v>0</v>
+      <c r="G45" t="s">
+        <v>439</v>
       </c>
       <c r="H45">
         <v>100</v>
@@ -4856,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4871,13 +4886,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="Q45" t="s">
         <v>163</v>
       </c>
       <c r="R45" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4899,8 +4914,8 @@
       <c r="F46" t="s">
         <v>380</v>
       </c>
-      <c r="G46">
-        <v>0</v>
+      <c r="G46" t="s">
+        <v>440</v>
       </c>
       <c r="H46">
         <v>100</v>
@@ -4912,7 +4927,7 @@
         <v>250</v>
       </c>
       <c r="K46" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4927,13 +4942,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="Q46" t="s">
         <v>164</v>
       </c>
       <c r="R46" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4955,8 +4970,8 @@
       <c r="F47" t="s">
         <v>381</v>
       </c>
-      <c r="G47">
-        <v>0</v>
+      <c r="G47" t="s">
+        <v>440</v>
       </c>
       <c r="H47">
         <v>100</v>
@@ -4968,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4983,13 +4998,13 @@
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="Q47" t="s">
         <v>165</v>
       </c>
       <c r="R47" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -5011,8 +5026,8 @@
       <c r="F48" t="s">
         <v>382</v>
       </c>
-      <c r="G48">
-        <v>0</v>
+      <c r="G48" t="s">
+        <v>440</v>
       </c>
       <c r="H48">
         <v>100</v>
@@ -5024,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -5039,13 +5054,13 @@
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="Q48" t="s">
         <v>166</v>
       </c>
       <c r="R48" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -5067,8 +5082,8 @@
       <c r="F49" t="s">
         <v>383</v>
       </c>
-      <c r="G49">
-        <v>0</v>
+      <c r="G49" t="s">
+        <v>440</v>
       </c>
       <c r="H49">
         <v>100</v>
@@ -5080,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -5095,13 +5110,13 @@
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="Q49" t="s">
         <v>167</v>
       </c>
       <c r="R49" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -5123,8 +5138,8 @@
       <c r="F50" t="s">
         <v>384</v>
       </c>
-      <c r="G50">
-        <v>0</v>
+      <c r="G50" t="s">
+        <v>440</v>
       </c>
       <c r="H50">
         <v>100</v>
@@ -5151,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="P50" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="Q50" t="s">
         <v>168</v>
       </c>
       <c r="R50" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -5179,8 +5194,8 @@
       <c r="F51" t="s">
         <v>385</v>
       </c>
-      <c r="G51">
-        <v>0</v>
+      <c r="G51" t="s">
+        <v>440</v>
       </c>
       <c r="H51">
         <v>100</v>
@@ -5207,13 +5222,13 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="Q51" t="s">
         <v>169</v>
       </c>
       <c r="R51" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -5235,8 +5250,8 @@
       <c r="F52" t="s">
         <v>386</v>
       </c>
-      <c r="G52">
-        <v>0</v>
+      <c r="G52" t="s">
+        <v>440</v>
       </c>
       <c r="H52">
         <v>100</v>
@@ -5263,13 +5278,13 @@
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="Q52" t="s">
         <v>170</v>
       </c>
       <c r="R52" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -5291,8 +5306,8 @@
       <c r="F53" t="s">
         <v>387</v>
       </c>
-      <c r="G53">
-        <v>0</v>
+      <c r="G53" t="s">
+        <v>440</v>
       </c>
       <c r="H53">
         <v>100</v>
@@ -5319,13 +5334,13 @@
         <v>0</v>
       </c>
       <c r="P53" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="Q53" t="s">
         <v>171</v>
       </c>
       <c r="R53" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -5347,8 +5362,8 @@
       <c r="F54" t="s">
         <v>388</v>
       </c>
-      <c r="G54">
-        <v>0</v>
+      <c r="G54" t="s">
+        <v>440</v>
       </c>
       <c r="H54">
         <v>100</v>
@@ -5375,13 +5390,13 @@
         <v>0</v>
       </c>
       <c r="P54" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="Q54" t="s">
         <v>172</v>
       </c>
       <c r="R54" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -5403,8 +5418,8 @@
       <c r="F55" t="s">
         <v>389</v>
       </c>
-      <c r="G55">
-        <v>0</v>
+      <c r="G55" t="s">
+        <v>440</v>
       </c>
       <c r="H55">
         <v>100</v>
@@ -5431,13 +5446,13 @@
         <v>0</v>
       </c>
       <c r="P55" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="Q55" t="s">
         <v>173</v>
       </c>
       <c r="R55" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -5459,8 +5474,8 @@
       <c r="F56" t="s">
         <v>390</v>
       </c>
-      <c r="G56">
-        <v>0</v>
+      <c r="G56" t="s">
+        <v>440</v>
       </c>
       <c r="H56">
         <v>100</v>
@@ -5487,13 +5502,13 @@
         <v>0</v>
       </c>
       <c r="P56" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="Q56" t="s">
         <v>174</v>
       </c>
       <c r="R56" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -5515,8 +5530,8 @@
       <c r="F57" t="s">
         <v>391</v>
       </c>
-      <c r="G57">
-        <v>0</v>
+      <c r="G57" t="s">
+        <v>440</v>
       </c>
       <c r="H57">
         <v>100</v>
@@ -5528,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -5543,13 +5558,13 @@
         <v>0</v>
       </c>
       <c r="P57" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="Q57" t="s">
         <v>175</v>
       </c>
       <c r="R57" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -5571,8 +5586,8 @@
       <c r="F58" t="s">
         <v>392</v>
       </c>
-      <c r="G58">
-        <v>0</v>
+      <c r="G58" t="s">
+        <v>440</v>
       </c>
       <c r="H58">
         <v>100</v>
@@ -5584,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -5599,13 +5614,13 @@
         <v>0</v>
       </c>
       <c r="P58" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="Q58" t="s">
         <v>176</v>
       </c>
       <c r="R58" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -5627,8 +5642,8 @@
       <c r="F59" t="s">
         <v>393</v>
       </c>
-      <c r="G59">
-        <v>0</v>
+      <c r="G59" t="s">
+        <v>440</v>
       </c>
       <c r="H59">
         <v>100</v>
@@ -5655,13 +5670,13 @@
         <v>0</v>
       </c>
       <c r="P59" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="Q59" t="s">
         <v>177</v>
       </c>
       <c r="R59" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5683,8 +5698,8 @@
       <c r="F60" t="s">
         <v>394</v>
       </c>
-      <c r="G60">
-        <v>0</v>
+      <c r="G60" t="s">
+        <v>440</v>
       </c>
       <c r="H60">
         <v>100</v>
@@ -5711,13 +5726,13 @@
         <v>0</v>
       </c>
       <c r="P60" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="Q60" t="s">
         <v>178</v>
       </c>
       <c r="R60" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5739,8 +5754,8 @@
       <c r="F61" t="s">
         <v>395</v>
       </c>
-      <c r="G61">
-        <v>0</v>
+      <c r="G61" t="s">
+        <v>440</v>
       </c>
       <c r="H61">
         <v>100</v>
@@ -5767,13 +5782,13 @@
         <v>0</v>
       </c>
       <c r="P61" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="Q61" t="s">
         <v>179</v>
       </c>
       <c r="R61" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5795,8 +5810,8 @@
       <c r="F62" t="s">
         <v>396</v>
       </c>
-      <c r="G62">
-        <v>0</v>
+      <c r="G62" t="s">
+        <v>440</v>
       </c>
       <c r="H62">
         <v>100</v>
@@ -5823,13 +5838,13 @@
         <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="Q62" t="s">
         <v>180</v>
       </c>
       <c r="R62" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -5851,8 +5866,8 @@
       <c r="F63" t="s">
         <v>397</v>
       </c>
-      <c r="G63">
-        <v>0</v>
+      <c r="G63" t="s">
+        <v>440</v>
       </c>
       <c r="H63">
         <v>100</v>
@@ -5879,13 +5894,13 @@
         <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="Q63" t="s">
         <v>181</v>
       </c>
       <c r="R63" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5907,8 +5922,8 @@
       <c r="F64" t="s">
         <v>398</v>
       </c>
-      <c r="G64">
-        <v>0</v>
+      <c r="G64" t="s">
+        <v>440</v>
       </c>
       <c r="H64">
         <v>100</v>
@@ -5920,7 +5935,7 @@
         <v>750</v>
       </c>
       <c r="K64" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5935,13 +5950,13 @@
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="Q64" t="s">
         <v>182</v>
       </c>
       <c r="R64" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5963,8 +5978,8 @@
       <c r="F65" t="s">
         <v>399</v>
       </c>
-      <c r="G65">
-        <v>0</v>
+      <c r="G65" t="s">
+        <v>440</v>
       </c>
       <c r="H65">
         <v>100</v>
@@ -5976,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -5991,13 +6006,13 @@
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="Q65" t="s">
         <v>183</v>
       </c>
       <c r="R65" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -6019,8 +6034,8 @@
       <c r="F66" t="s">
         <v>400</v>
       </c>
-      <c r="G66">
-        <v>0</v>
+      <c r="G66" t="s">
+        <v>440</v>
       </c>
       <c r="H66">
         <v>100</v>
@@ -6032,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -6047,13 +6062,13 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="Q66" t="s">
         <v>184</v>
       </c>
       <c r="R66" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -6075,8 +6090,8 @@
       <c r="F67" t="s">
         <v>401</v>
       </c>
-      <c r="G67">
-        <v>0</v>
+      <c r="G67" t="s">
+        <v>440</v>
       </c>
       <c r="H67">
         <v>100</v>
@@ -6088,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -6103,13 +6118,13 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="Q67" t="s">
         <v>185</v>
       </c>
       <c r="R67" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -6131,8 +6146,8 @@
       <c r="F68" t="s">
         <v>402</v>
       </c>
-      <c r="G68">
-        <v>0</v>
+      <c r="G68" t="s">
+        <v>440</v>
       </c>
       <c r="H68">
         <v>100</v>
@@ -6144,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -6159,13 +6174,13 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="Q68" t="s">
         <v>186</v>
       </c>
       <c r="R68" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -6187,8 +6202,8 @@
       <c r="F69" t="s">
         <v>403</v>
       </c>
-      <c r="G69">
-        <v>0</v>
+      <c r="G69" t="s">
+        <v>440</v>
       </c>
       <c r="H69">
         <v>100</v>
@@ -6200,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -6215,13 +6230,13 @@
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="Q69" t="s">
         <v>187</v>
       </c>
       <c r="R69" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -6243,8 +6258,8 @@
       <c r="F70" t="s">
         <v>404</v>
       </c>
-      <c r="G70">
-        <v>0</v>
+      <c r="G70" t="s">
+        <v>440</v>
       </c>
       <c r="H70">
         <v>100</v>
@@ -6271,13 +6286,13 @@
         <v>0</v>
       </c>
       <c r="P70" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Q70" t="s">
         <v>188</v>
       </c>
       <c r="R70" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -6299,8 +6314,8 @@
       <c r="F71" t="s">
         <v>405</v>
       </c>
-      <c r="G71">
-        <v>0</v>
+      <c r="G71" t="s">
+        <v>440</v>
       </c>
       <c r="H71">
         <v>100</v>
@@ -6312,7 +6327,7 @@
         <v>180</v>
       </c>
       <c r="K71" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6327,13 +6342,13 @@
         <v>0</v>
       </c>
       <c r="P71" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="Q71" t="s">
         <v>189</v>
       </c>
       <c r="R71" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -6355,8 +6370,8 @@
       <c r="F72" t="s">
         <v>406</v>
       </c>
-      <c r="G72">
-        <v>0</v>
+      <c r="G72" t="s">
+        <v>440</v>
       </c>
       <c r="H72">
         <v>100</v>
@@ -6383,13 +6398,13 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="Q72" t="s">
         <v>190</v>
       </c>
       <c r="R72" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -6411,8 +6426,8 @@
       <c r="F73" t="s">
         <v>407</v>
       </c>
-      <c r="G73">
-        <v>0</v>
+      <c r="G73" t="s">
+        <v>441</v>
       </c>
       <c r="H73">
         <v>100</v>
@@ -6424,7 +6439,7 @@
         <v>50</v>
       </c>
       <c r="K73" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -6439,13 +6454,13 @@
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="Q73" t="s">
         <v>191</v>
       </c>
       <c r="R73" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -6467,8 +6482,8 @@
       <c r="F74" t="s">
         <v>408</v>
       </c>
-      <c r="G74">
-        <v>0</v>
+      <c r="G74" t="s">
+        <v>441</v>
       </c>
       <c r="H74">
         <v>100</v>
@@ -6495,13 +6510,13 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="Q74" t="s">
         <v>192</v>
       </c>
       <c r="R74" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -6523,8 +6538,8 @@
       <c r="F75" t="s">
         <v>409</v>
       </c>
-      <c r="G75">
-        <v>0</v>
+      <c r="G75" t="s">
+        <v>441</v>
       </c>
       <c r="H75">
         <v>100</v>
@@ -6551,13 +6566,13 @@
         <v>0</v>
       </c>
       <c r="P75" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="Q75" t="s">
         <v>193</v>
       </c>
       <c r="R75" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -6579,8 +6594,8 @@
       <c r="F76" t="s">
         <v>410</v>
       </c>
-      <c r="G76">
-        <v>0</v>
+      <c r="G76" t="s">
+        <v>441</v>
       </c>
       <c r="H76">
         <v>100</v>
@@ -6592,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -6607,13 +6622,13 @@
         <v>0</v>
       </c>
       <c r="P76" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="Q76" t="s">
         <v>194</v>
       </c>
       <c r="R76" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -6635,8 +6650,8 @@
       <c r="F77" t="s">
         <v>411</v>
       </c>
-      <c r="G77">
-        <v>0</v>
+      <c r="G77" t="s">
+        <v>441</v>
       </c>
       <c r="H77">
         <v>100</v>
@@ -6648,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -6663,13 +6678,13 @@
         <v>0</v>
       </c>
       <c r="P77" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="Q77" t="s">
         <v>195</v>
       </c>
       <c r="R77" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -6691,8 +6706,8 @@
       <c r="F78" t="s">
         <v>412</v>
       </c>
-      <c r="G78">
-        <v>0</v>
+      <c r="G78" t="s">
+        <v>441</v>
       </c>
       <c r="H78">
         <v>100</v>
@@ -6704,7 +6719,7 @@
         <v>200</v>
       </c>
       <c r="K78" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -6719,13 +6734,13 @@
         <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="Q78" t="s">
         <v>196</v>
       </c>
       <c r="R78" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -6747,8 +6762,8 @@
       <c r="F79" t="s">
         <v>413</v>
       </c>
-      <c r="G79">
-        <v>0</v>
+      <c r="G79" t="s">
+        <v>441</v>
       </c>
       <c r="H79">
         <v>100</v>
@@ -6760,7 +6775,7 @@
         <v>250</v>
       </c>
       <c r="K79" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -6775,13 +6790,13 @@
         <v>0</v>
       </c>
       <c r="P79" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="Q79" t="s">
         <v>197</v>
       </c>
       <c r="R79" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -6803,8 +6818,8 @@
       <c r="F80" t="s">
         <v>414</v>
       </c>
-      <c r="G80">
-        <v>0</v>
+      <c r="G80" t="s">
+        <v>441</v>
       </c>
       <c r="H80">
         <v>100</v>
@@ -6831,13 +6846,13 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="Q80" t="s">
         <v>198</v>
       </c>
       <c r="R80" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -6859,8 +6874,8 @@
       <c r="F81" t="s">
         <v>415</v>
       </c>
-      <c r="G81">
-        <v>0</v>
+      <c r="G81" t="s">
+        <v>441</v>
       </c>
       <c r="H81">
         <v>100</v>
@@ -6872,7 +6887,7 @@
         <v>400</v>
       </c>
       <c r="K81" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -6887,13 +6902,13 @@
         <v>0</v>
       </c>
       <c r="P81" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="Q81" t="s">
         <v>199</v>
       </c>
       <c r="R81" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -6915,8 +6930,8 @@
       <c r="F82" t="s">
         <v>416</v>
       </c>
-      <c r="G82">
-        <v>0</v>
+      <c r="G82" t="s">
+        <v>441</v>
       </c>
       <c r="H82">
         <v>100</v>
@@ -6928,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -6943,13 +6958,13 @@
         <v>0</v>
       </c>
       <c r="P82" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Q82" t="s">
         <v>200</v>
       </c>
       <c r="R82" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -6971,8 +6986,8 @@
       <c r="F83" t="s">
         <v>417</v>
       </c>
-      <c r="G83">
-        <v>0</v>
+      <c r="G83" t="s">
+        <v>441</v>
       </c>
       <c r="H83">
         <v>100</v>
@@ -6984,7 +6999,7 @@
         <v>750</v>
       </c>
       <c r="K83" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -6999,13 +7014,13 @@
         <v>0</v>
       </c>
       <c r="P83" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="Q83" t="s">
         <v>201</v>
       </c>
       <c r="R83" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -7027,8 +7042,8 @@
       <c r="F84" t="s">
         <v>418</v>
       </c>
-      <c r="G84">
-        <v>0</v>
+      <c r="G84" t="s">
+        <v>441</v>
       </c>
       <c r="H84">
         <v>100</v>
@@ -7040,7 +7055,7 @@
         <v>1000</v>
       </c>
       <c r="K84" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -7055,13 +7070,13 @@
         <v>0</v>
       </c>
       <c r="P84" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="Q84" t="s">
         <v>202</v>
       </c>
       <c r="R84" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -7083,8 +7098,8 @@
       <c r="F85" t="s">
         <v>419</v>
       </c>
-      <c r="G85">
-        <v>0</v>
+      <c r="G85" t="s">
+        <v>441</v>
       </c>
       <c r="H85">
         <v>100</v>
@@ -7096,7 +7111,7 @@
         <v>1000</v>
       </c>
       <c r="K85" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -7111,13 +7126,13 @@
         <v>0</v>
       </c>
       <c r="P85" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="Q85" t="s">
         <v>203</v>
       </c>
       <c r="R85" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -7139,8 +7154,8 @@
       <c r="F86" t="s">
         <v>420</v>
       </c>
-      <c r="G86">
-        <v>0</v>
+      <c r="G86" t="s">
+        <v>441</v>
       </c>
       <c r="H86">
         <v>100</v>
@@ -7152,7 +7167,7 @@
         <v>250</v>
       </c>
       <c r="K86" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -7167,13 +7182,13 @@
         <v>0</v>
       </c>
       <c r="P86" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="Q86" t="s">
         <v>204</v>
       </c>
       <c r="R86" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -7195,8 +7210,8 @@
       <c r="F87" t="s">
         <v>421</v>
       </c>
-      <c r="G87">
-        <v>0</v>
+      <c r="G87" t="s">
+        <v>441</v>
       </c>
       <c r="H87">
         <v>100</v>
@@ -7208,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -7223,13 +7238,13 @@
         <v>0</v>
       </c>
       <c r="P87" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="Q87" t="s">
         <v>205</v>
       </c>
       <c r="R87" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -7251,8 +7266,8 @@
       <c r="F88" t="s">
         <v>422</v>
       </c>
-      <c r="G88">
-        <v>0</v>
+      <c r="G88" t="s">
+        <v>441</v>
       </c>
       <c r="H88">
         <v>100</v>
@@ -7264,7 +7279,7 @@
         <v>250</v>
       </c>
       <c r="K88" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -7279,13 +7294,13 @@
         <v>0</v>
       </c>
       <c r="P88" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="Q88" t="s">
         <v>206</v>
       </c>
       <c r="R88" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -7307,8 +7322,8 @@
       <c r="F89" t="s">
         <v>423</v>
       </c>
-      <c r="G89">
-        <v>0</v>
+      <c r="G89" t="s">
+        <v>441</v>
       </c>
       <c r="H89">
         <v>100</v>
@@ -7335,13 +7350,13 @@
         <v>0</v>
       </c>
       <c r="P89" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="Q89" t="s">
         <v>207</v>
       </c>
       <c r="R89" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -7363,8 +7378,8 @@
       <c r="F90" t="s">
         <v>424</v>
       </c>
-      <c r="G90">
-        <v>0</v>
+      <c r="G90" t="s">
+        <v>441</v>
       </c>
       <c r="H90">
         <v>100</v>
@@ -7376,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -7391,13 +7406,13 @@
         <v>0</v>
       </c>
       <c r="P90" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="Q90" t="s">
         <v>208</v>
       </c>
       <c r="R90" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -7419,8 +7434,8 @@
       <c r="F91" t="s">
         <v>425</v>
       </c>
-      <c r="G91">
-        <v>0</v>
+      <c r="G91" t="s">
+        <v>441</v>
       </c>
       <c r="H91">
         <v>100</v>
@@ -7432,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -7447,13 +7462,13 @@
         <v>0</v>
       </c>
       <c r="P91" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="Q91" t="s">
         <v>209</v>
       </c>
       <c r="R91" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -7475,8 +7490,8 @@
       <c r="F92" t="s">
         <v>426</v>
       </c>
-      <c r="G92">
-        <v>0</v>
+      <c r="G92" t="s">
+        <v>441</v>
       </c>
       <c r="H92">
         <v>100</v>
@@ -7488,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -7503,13 +7518,13 @@
         <v>0</v>
       </c>
       <c r="P92" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="Q92" t="s">
         <v>210</v>
       </c>
       <c r="R92" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -7531,8 +7546,8 @@
       <c r="F93" t="s">
         <v>427</v>
       </c>
-      <c r="G93">
-        <v>0</v>
+      <c r="G93" t="s">
+        <v>441</v>
       </c>
       <c r="H93">
         <v>100</v>
@@ -7559,13 +7574,13 @@
         <v>0</v>
       </c>
       <c r="P93" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="Q93" t="s">
         <v>211</v>
       </c>
       <c r="R93" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -7587,8 +7602,8 @@
       <c r="F94" t="s">
         <v>428</v>
       </c>
-      <c r="G94">
-        <v>0</v>
+      <c r="G94" t="s">
+        <v>441</v>
       </c>
       <c r="H94">
         <v>100</v>
@@ -7615,13 +7630,13 @@
         <v>0</v>
       </c>
       <c r="P94" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="Q94" t="s">
         <v>212</v>
       </c>
       <c r="R94" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -7643,8 +7658,8 @@
       <c r="F95" t="s">
         <v>429</v>
       </c>
-      <c r="G95">
-        <v>0</v>
+      <c r="G95" t="s">
+        <v>441</v>
       </c>
       <c r="H95">
         <v>100</v>
@@ -7671,13 +7686,13 @@
         <v>0</v>
       </c>
       <c r="P95" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="Q95" t="s">
         <v>213</v>
       </c>
       <c r="R95" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -7699,8 +7714,8 @@
       <c r="F96" t="s">
         <v>430</v>
       </c>
-      <c r="G96">
-        <v>0</v>
+      <c r="G96" t="s">
+        <v>441</v>
       </c>
       <c r="H96">
         <v>100</v>
@@ -7727,13 +7742,13 @@
         <v>0</v>
       </c>
       <c r="P96" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="Q96" t="s">
         <v>214</v>
       </c>
       <c r="R96" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -7755,8 +7770,8 @@
       <c r="F97" t="s">
         <v>431</v>
       </c>
-      <c r="G97">
-        <v>0</v>
+      <c r="G97" t="s">
+        <v>441</v>
       </c>
       <c r="H97">
         <v>100</v>
@@ -7768,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -7783,13 +7798,13 @@
         <v>0</v>
       </c>
       <c r="P97" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="Q97" t="s">
         <v>215</v>
       </c>
       <c r="R97" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -7811,8 +7826,8 @@
       <c r="F98" t="s">
         <v>432</v>
       </c>
-      <c r="G98">
-        <v>0</v>
+      <c r="G98" t="s">
+        <v>441</v>
       </c>
       <c r="H98">
         <v>100</v>
@@ -7824,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -7839,13 +7854,13 @@
         <v>0</v>
       </c>
       <c r="P98" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="Q98" t="s">
         <v>216</v>
       </c>
       <c r="R98" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -7867,8 +7882,8 @@
       <c r="F99" t="s">
         <v>433</v>
       </c>
-      <c r="G99">
-        <v>0</v>
+      <c r="G99" t="s">
+        <v>441</v>
       </c>
       <c r="H99">
         <v>100</v>
@@ -7895,13 +7910,13 @@
         <v>0</v>
       </c>
       <c r="P99" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="Q99" t="s">
         <v>217</v>
       </c>
       <c r="R99" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -7923,8 +7938,8 @@
       <c r="F100" t="s">
         <v>434</v>
       </c>
-      <c r="G100">
-        <v>0</v>
+      <c r="G100" t="s">
+        <v>441</v>
       </c>
       <c r="H100">
         <v>100</v>
@@ -7936,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -7951,13 +7966,13 @@
         <v>0</v>
       </c>
       <c r="P100" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="Q100" t="s">
         <v>218</v>
       </c>
       <c r="R100" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -7979,8 +7994,8 @@
       <c r="F101" t="s">
         <v>435</v>
       </c>
-      <c r="G101">
-        <v>0</v>
+      <c r="G101" t="s">
+        <v>441</v>
       </c>
       <c r="H101">
         <v>100</v>
@@ -7992,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -8007,13 +8022,13 @@
         <v>0</v>
       </c>
       <c r="P101" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="Q101" t="s">
         <v>219</v>
       </c>
       <c r="R101" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -8035,8 +8050,8 @@
       <c r="F102" t="s">
         <v>436</v>
       </c>
-      <c r="G102">
-        <v>0</v>
+      <c r="G102" t="s">
+        <v>442</v>
       </c>
       <c r="H102">
         <v>100</v>
@@ -8063,13 +8078,13 @@
         <v>0</v>
       </c>
       <c r="P102" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="Q102" t="s">
         <v>220</v>
       </c>
       <c r="R102" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -8091,8 +8106,8 @@
       <c r="F103" t="s">
         <v>437</v>
       </c>
-      <c r="G103">
-        <v>0</v>
+      <c r="G103" t="s">
+        <v>442</v>
       </c>
       <c r="H103">
         <v>100</v>
@@ -8104,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -8119,13 +8134,13 @@
         <v>0</v>
       </c>
       <c r="P103" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="Q103" t="s">
         <v>221</v>
       </c>
       <c r="R103" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/info.xlsx
+++ b/info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="662">
   <si>
     <t>index</t>
   </si>
@@ -1339,19 +1339,16 @@
     <t>edward-zfy-01397-full-body-3D-rendered-of-Ganyu-game-of-Genshin.html</t>
   </si>
   <si>
-    <t>2024-08-15 15:27:27</t>
-  </si>
-  <si>
-    <t>2024-08-15 15:27:28</t>
-  </si>
-  <si>
-    <t>2024-08-15 15:27:29</t>
-  </si>
-  <si>
-    <t>2024-08-15 15:27:30</t>
-  </si>
-  <si>
-    <t>2024-08-15 15:27:31</t>
+    <t>2024-08-15 20:17:13</t>
+  </si>
+  <si>
+    <t>2024-08-15 20:17:14</t>
+  </si>
+  <si>
+    <t>2024-08-15 20:17:15</t>
+  </si>
+  <si>
+    <t>2024-08-15 20:17:16</t>
   </si>
   <si>
     <t>2:3</t>
@@ -2478,13 +2475,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q2" t="s">
         <v>120</v>
       </c>
       <c r="R2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2534,13 +2531,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q3" t="s">
         <v>121</v>
       </c>
       <c r="R3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2590,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q4" t="s">
         <v>122</v>
       </c>
       <c r="R4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2631,7 +2628,7 @@
         <v>750</v>
       </c>
       <c r="K5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2646,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Q5" t="s">
         <v>123</v>
       </c>
       <c r="R5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2702,13 +2699,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q6" t="s">
         <v>124</v>
       </c>
       <c r="R6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2758,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q7" t="s">
         <v>125</v>
       </c>
       <c r="R7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2799,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L8">
         <v>0.41</v>
@@ -2814,13 +2811,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q8" t="s">
         <v>126</v>
       </c>
       <c r="R8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2855,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2870,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q9" t="s">
         <v>127</v>
       </c>
       <c r="R9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2926,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Q10" t="s">
         <v>128</v>
       </c>
       <c r="R10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2982,13 +2979,13 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q11" t="s">
         <v>129</v>
       </c>
       <c r="R11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3023,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3038,13 +3035,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q12" t="s">
         <v>130</v>
       </c>
       <c r="R12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3094,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q13" t="s">
         <v>131</v>
       </c>
       <c r="R13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3135,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -3150,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q14" t="s">
         <v>132</v>
       </c>
       <c r="R14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3191,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -3206,13 +3203,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q15" t="s">
         <v>133</v>
       </c>
       <c r="R15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3247,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -3262,13 +3259,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q16" t="s">
         <v>134</v>
       </c>
       <c r="R16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3291,7 +3288,7 @@
         <v>351</v>
       </c>
       <c r="G17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H17">
         <v>100</v>
@@ -3303,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L17">
         <v>1.2</v>
@@ -3318,13 +3315,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q17" t="s">
         <v>135</v>
       </c>
       <c r="R17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3347,7 +3344,7 @@
         <v>352</v>
       </c>
       <c r="G18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -3374,13 +3371,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q18" t="s">
         <v>136</v>
       </c>
       <c r="R18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3403,7 +3400,7 @@
         <v>353</v>
       </c>
       <c r="G19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H19">
         <v>100</v>
@@ -3415,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3430,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q19" t="s">
         <v>137</v>
       </c>
       <c r="R19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3459,7 +3456,7 @@
         <v>354</v>
       </c>
       <c r="G20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -3471,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L20">
         <v>0.5</v>
@@ -3486,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q20" t="s">
         <v>138</v>
       </c>
       <c r="R20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -3515,7 +3512,7 @@
         <v>355</v>
       </c>
       <c r="G21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -3527,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3542,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q21" t="s">
         <v>139</v>
       </c>
       <c r="R21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3571,7 +3568,7 @@
         <v>356</v>
       </c>
       <c r="G22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -3583,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3598,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q22" t="s">
         <v>140</v>
       </c>
       <c r="R22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3627,7 +3624,7 @@
         <v>357</v>
       </c>
       <c r="G23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -3639,7 +3636,7 @@
         <v>50</v>
       </c>
       <c r="K23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3654,13 +3651,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q23" t="s">
         <v>141</v>
       </c>
       <c r="R23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3683,7 +3680,7 @@
         <v>358</v>
       </c>
       <c r="G24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H24">
         <v>100</v>
@@ -3695,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3710,13 +3707,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q24" t="s">
         <v>142</v>
       </c>
       <c r="R24" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3739,7 +3736,7 @@
         <v>359</v>
       </c>
       <c r="G25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -3766,13 +3763,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q25" t="s">
         <v>143</v>
       </c>
       <c r="R25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3795,7 +3792,7 @@
         <v>360</v>
       </c>
       <c r="G26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -3807,7 +3804,7 @@
         <v>750</v>
       </c>
       <c r="K26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3822,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q26" t="s">
         <v>144</v>
       </c>
       <c r="R26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3851,7 +3848,7 @@
         <v>361</v>
       </c>
       <c r="G27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -3863,7 +3860,7 @@
         <v>750</v>
       </c>
       <c r="K27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -3878,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q27" t="s">
         <v>145</v>
       </c>
       <c r="R27" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3907,7 +3904,7 @@
         <v>362</v>
       </c>
       <c r="G28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H28">
         <v>100</v>
@@ -3919,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3934,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Q28" t="s">
         <v>146</v>
       </c>
       <c r="R28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3963,7 +3960,7 @@
         <v>363</v>
       </c>
       <c r="G29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H29">
         <v>100</v>
@@ -3975,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3990,13 +3987,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q29" t="s">
         <v>147</v>
       </c>
       <c r="R29" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -4031,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -4046,13 +4043,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q30" t="s">
         <v>148</v>
       </c>
       <c r="R30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -4087,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -4102,13 +4099,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Q31" t="s">
         <v>149</v>
       </c>
       <c r="R31" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -4143,7 +4140,7 @@
         <v>50</v>
       </c>
       <c r="K32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -4158,13 +4155,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q32" t="s">
         <v>150</v>
       </c>
       <c r="R32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -4199,7 +4196,7 @@
         <v>250</v>
       </c>
       <c r="K33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4214,13 +4211,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q33" t="s">
         <v>151</v>
       </c>
       <c r="R33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -4255,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4270,13 +4267,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q34" t="s">
         <v>152</v>
       </c>
       <c r="R34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -4311,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -4326,13 +4323,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q35" t="s">
         <v>153</v>
       </c>
       <c r="R35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -4367,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -4382,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q36" t="s">
         <v>154</v>
       </c>
       <c r="R36" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -4423,7 +4420,7 @@
         <v>750</v>
       </c>
       <c r="K37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -4438,13 +4435,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q37" t="s">
         <v>155</v>
       </c>
       <c r="R37" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -4479,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4494,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q38" t="s">
         <v>156</v>
       </c>
       <c r="R38" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4535,7 +4532,7 @@
         <v>50</v>
       </c>
       <c r="K39" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4550,13 +4547,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q39" t="s">
         <v>157</v>
       </c>
       <c r="R39" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4591,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4606,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q40" t="s">
         <v>158</v>
       </c>
       <c r="R40" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4647,7 +4644,7 @@
         <v>50</v>
       </c>
       <c r="K41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4662,13 +4659,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q41" t="s">
         <v>159</v>
       </c>
       <c r="R41" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4703,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4718,13 +4715,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q42" t="s">
         <v>160</v>
       </c>
       <c r="R42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4759,7 +4756,7 @@
         <v>250</v>
       </c>
       <c r="K43" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4774,13 +4771,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q43" t="s">
         <v>161</v>
       </c>
       <c r="R43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4815,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4830,13 +4827,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q44" t="s">
         <v>162</v>
       </c>
       <c r="R44" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4871,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4886,13 +4883,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q45" t="s">
         <v>163</v>
       </c>
       <c r="R45" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4915,7 +4912,7 @@
         <v>380</v>
       </c>
       <c r="G46" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H46">
         <v>100</v>
@@ -4927,7 +4924,7 @@
         <v>250</v>
       </c>
       <c r="K46" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4942,13 +4939,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q46" t="s">
         <v>164</v>
       </c>
       <c r="R46" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4971,7 +4968,7 @@
         <v>381</v>
       </c>
       <c r="G47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H47">
         <v>100</v>
@@ -4983,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4998,13 +4995,13 @@
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q47" t="s">
         <v>165</v>
       </c>
       <c r="R47" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -5027,7 +5024,7 @@
         <v>382</v>
       </c>
       <c r="G48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H48">
         <v>100</v>
@@ -5039,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -5054,13 +5051,13 @@
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q48" t="s">
         <v>166</v>
       </c>
       <c r="R48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -5083,7 +5080,7 @@
         <v>383</v>
       </c>
       <c r="G49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H49">
         <v>100</v>
@@ -5095,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -5110,13 +5107,13 @@
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q49" t="s">
         <v>167</v>
       </c>
       <c r="R49" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -5139,7 +5136,7 @@
         <v>384</v>
       </c>
       <c r="G50" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H50">
         <v>100</v>
@@ -5166,13 +5163,13 @@
         <v>0</v>
       </c>
       <c r="P50" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q50" t="s">
         <v>168</v>
       </c>
       <c r="R50" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -5195,7 +5192,7 @@
         <v>385</v>
       </c>
       <c r="G51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H51">
         <v>100</v>
@@ -5222,13 +5219,13 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q51" t="s">
         <v>169</v>
       </c>
       <c r="R51" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -5251,7 +5248,7 @@
         <v>386</v>
       </c>
       <c r="G52" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H52">
         <v>100</v>
@@ -5278,13 +5275,13 @@
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Q52" t="s">
         <v>170</v>
       </c>
       <c r="R52" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -5307,7 +5304,7 @@
         <v>387</v>
       </c>
       <c r="G53" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H53">
         <v>100</v>
@@ -5334,13 +5331,13 @@
         <v>0</v>
       </c>
       <c r="P53" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q53" t="s">
         <v>171</v>
       </c>
       <c r="R53" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -5363,7 +5360,7 @@
         <v>388</v>
       </c>
       <c r="G54" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H54">
         <v>100</v>
@@ -5390,13 +5387,13 @@
         <v>0</v>
       </c>
       <c r="P54" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q54" t="s">
         <v>172</v>
       </c>
       <c r="R54" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -5419,7 +5416,7 @@
         <v>389</v>
       </c>
       <c r="G55" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H55">
         <v>100</v>
@@ -5446,13 +5443,13 @@
         <v>0</v>
       </c>
       <c r="P55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q55" t="s">
         <v>173</v>
       </c>
       <c r="R55" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -5475,7 +5472,7 @@
         <v>390</v>
       </c>
       <c r="G56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H56">
         <v>100</v>
@@ -5502,13 +5499,13 @@
         <v>0</v>
       </c>
       <c r="P56" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q56" t="s">
         <v>174</v>
       </c>
       <c r="R56" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -5531,7 +5528,7 @@
         <v>391</v>
       </c>
       <c r="G57" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H57">
         <v>100</v>
@@ -5543,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -5558,13 +5555,13 @@
         <v>0</v>
       </c>
       <c r="P57" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q57" t="s">
         <v>175</v>
       </c>
       <c r="R57" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -5599,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -5614,13 +5611,13 @@
         <v>0</v>
       </c>
       <c r="P58" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q58" t="s">
         <v>176</v>
       </c>
       <c r="R58" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -5670,13 +5667,13 @@
         <v>0</v>
       </c>
       <c r="P59" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Q59" t="s">
         <v>177</v>
       </c>
       <c r="R59" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5726,13 +5723,13 @@
         <v>0</v>
       </c>
       <c r="P60" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q60" t="s">
         <v>178</v>
       </c>
       <c r="R60" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5782,13 +5779,13 @@
         <v>0</v>
       </c>
       <c r="P61" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Q61" t="s">
         <v>179</v>
       </c>
       <c r="R61" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5838,13 +5835,13 @@
         <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q62" t="s">
         <v>180</v>
       </c>
       <c r="R62" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -5894,13 +5891,13 @@
         <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Q63" t="s">
         <v>181</v>
       </c>
       <c r="R63" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5935,7 +5932,7 @@
         <v>750</v>
       </c>
       <c r="K64" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5950,13 +5947,13 @@
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Q64" t="s">
         <v>182</v>
       </c>
       <c r="R64" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5991,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -6006,13 +6003,13 @@
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Q65" t="s">
         <v>183</v>
       </c>
       <c r="R65" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -6047,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -6062,13 +6059,13 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Q66" t="s">
         <v>184</v>
       </c>
       <c r="R66" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -6103,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -6118,13 +6115,13 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Q67" t="s">
         <v>185</v>
       </c>
       <c r="R67" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -6159,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -6174,13 +6171,13 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q68" t="s">
         <v>186</v>
       </c>
       <c r="R68" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -6215,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -6230,13 +6227,13 @@
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q69" t="s">
         <v>187</v>
       </c>
       <c r="R69" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -6286,13 +6283,13 @@
         <v>0</v>
       </c>
       <c r="P70" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q70" t="s">
         <v>188</v>
       </c>
       <c r="R70" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -6327,7 +6324,7 @@
         <v>180</v>
       </c>
       <c r="K71" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6342,13 +6339,13 @@
         <v>0</v>
       </c>
       <c r="P71" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q71" t="s">
         <v>189</v>
       </c>
       <c r="R71" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -6398,13 +6395,13 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q72" t="s">
         <v>190</v>
       </c>
       <c r="R72" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -6427,7 +6424,7 @@
         <v>407</v>
       </c>
       <c r="G73" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H73">
         <v>100</v>
@@ -6439,7 +6436,7 @@
         <v>50</v>
       </c>
       <c r="K73" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -6454,13 +6451,13 @@
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q73" t="s">
         <v>191</v>
       </c>
       <c r="R73" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -6483,7 +6480,7 @@
         <v>408</v>
       </c>
       <c r="G74" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H74">
         <v>100</v>
@@ -6510,13 +6507,13 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q74" t="s">
         <v>192</v>
       </c>
       <c r="R74" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -6539,7 +6536,7 @@
         <v>409</v>
       </c>
       <c r="G75" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H75">
         <v>100</v>
@@ -6566,13 +6563,13 @@
         <v>0</v>
       </c>
       <c r="P75" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q75" t="s">
         <v>193</v>
       </c>
       <c r="R75" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -6595,7 +6592,7 @@
         <v>410</v>
       </c>
       <c r="G76" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H76">
         <v>100</v>
@@ -6607,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -6622,13 +6619,13 @@
         <v>0</v>
       </c>
       <c r="P76" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q76" t="s">
         <v>194</v>
       </c>
       <c r="R76" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -6651,7 +6648,7 @@
         <v>411</v>
       </c>
       <c r="G77" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H77">
         <v>100</v>
@@ -6663,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -6678,13 +6675,13 @@
         <v>0</v>
       </c>
       <c r="P77" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q77" t="s">
         <v>195</v>
       </c>
       <c r="R77" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -6707,7 +6704,7 @@
         <v>412</v>
       </c>
       <c r="G78" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H78">
         <v>100</v>
@@ -6719,7 +6716,7 @@
         <v>200</v>
       </c>
       <c r="K78" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -6734,13 +6731,13 @@
         <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Q78" t="s">
         <v>196</v>
       </c>
       <c r="R78" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -6763,7 +6760,7 @@
         <v>413</v>
       </c>
       <c r="G79" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H79">
         <v>100</v>
@@ -6775,7 +6772,7 @@
         <v>250</v>
       </c>
       <c r="K79" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -6790,13 +6787,13 @@
         <v>0</v>
       </c>
       <c r="P79" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q79" t="s">
         <v>197</v>
       </c>
       <c r="R79" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -6819,7 +6816,7 @@
         <v>414</v>
       </c>
       <c r="G80" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H80">
         <v>100</v>
@@ -6846,13 +6843,13 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q80" t="s">
         <v>198</v>
       </c>
       <c r="R80" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -6875,7 +6872,7 @@
         <v>415</v>
       </c>
       <c r="G81" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H81">
         <v>100</v>
@@ -6887,7 +6884,7 @@
         <v>400</v>
       </c>
       <c r="K81" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -6902,13 +6899,13 @@
         <v>0</v>
       </c>
       <c r="P81" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q81" t="s">
         <v>199</v>
       </c>
       <c r="R81" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -6931,7 +6928,7 @@
         <v>416</v>
       </c>
       <c r="G82" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H82">
         <v>100</v>
@@ -6943,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -6958,13 +6955,13 @@
         <v>0</v>
       </c>
       <c r="P82" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Q82" t="s">
         <v>200</v>
       </c>
       <c r="R82" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -6987,7 +6984,7 @@
         <v>417</v>
       </c>
       <c r="G83" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H83">
         <v>100</v>
@@ -6999,7 +6996,7 @@
         <v>750</v>
       </c>
       <c r="K83" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -7014,13 +7011,13 @@
         <v>0</v>
       </c>
       <c r="P83" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Q83" t="s">
         <v>201</v>
       </c>
       <c r="R83" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -7043,7 +7040,7 @@
         <v>418</v>
       </c>
       <c r="G84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H84">
         <v>100</v>
@@ -7055,7 +7052,7 @@
         <v>1000</v>
       </c>
       <c r="K84" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -7070,13 +7067,13 @@
         <v>0</v>
       </c>
       <c r="P84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q84" t="s">
         <v>202</v>
       </c>
       <c r="R84" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -7099,7 +7096,7 @@
         <v>419</v>
       </c>
       <c r="G85" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H85">
         <v>100</v>
@@ -7111,7 +7108,7 @@
         <v>1000</v>
       </c>
       <c r="K85" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -7126,13 +7123,13 @@
         <v>0</v>
       </c>
       <c r="P85" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q85" t="s">
         <v>203</v>
       </c>
       <c r="R85" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -7155,7 +7152,7 @@
         <v>420</v>
       </c>
       <c r="G86" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H86">
         <v>100</v>
@@ -7167,7 +7164,7 @@
         <v>250</v>
       </c>
       <c r="K86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -7182,13 +7179,13 @@
         <v>0</v>
       </c>
       <c r="P86" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q86" t="s">
         <v>204</v>
       </c>
       <c r="R86" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -7223,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -7238,13 +7235,13 @@
         <v>0</v>
       </c>
       <c r="P87" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Q87" t="s">
         <v>205</v>
       </c>
       <c r="R87" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -7279,7 +7276,7 @@
         <v>250</v>
       </c>
       <c r="K88" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -7294,13 +7291,13 @@
         <v>0</v>
       </c>
       <c r="P88" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q88" t="s">
         <v>206</v>
       </c>
       <c r="R88" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -7350,13 +7347,13 @@
         <v>0</v>
       </c>
       <c r="P89" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q89" t="s">
         <v>207</v>
       </c>
       <c r="R89" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -7391,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -7406,13 +7403,13 @@
         <v>0</v>
       </c>
       <c r="P90" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q90" t="s">
         <v>208</v>
       </c>
       <c r="R90" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -7447,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -7462,13 +7459,13 @@
         <v>0</v>
       </c>
       <c r="P91" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q91" t="s">
         <v>209</v>
       </c>
       <c r="R91" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -7503,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -7518,13 +7515,13 @@
         <v>0</v>
       </c>
       <c r="P92" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q92" t="s">
         <v>210</v>
       </c>
       <c r="R92" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -7574,13 +7571,13 @@
         <v>0</v>
       </c>
       <c r="P93" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Q93" t="s">
         <v>211</v>
       </c>
       <c r="R93" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -7630,13 +7627,13 @@
         <v>0</v>
       </c>
       <c r="P94" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Q94" t="s">
         <v>212</v>
       </c>
       <c r="R94" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -7686,13 +7683,13 @@
         <v>0</v>
       </c>
       <c r="P95" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q95" t="s">
         <v>213</v>
       </c>
       <c r="R95" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -7742,13 +7739,13 @@
         <v>0</v>
       </c>
       <c r="P96" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q96" t="s">
         <v>214</v>
       </c>
       <c r="R96" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -7783,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -7798,13 +7795,13 @@
         <v>0</v>
       </c>
       <c r="P97" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Q97" t="s">
         <v>215</v>
       </c>
       <c r="R97" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -7839,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -7854,13 +7851,13 @@
         <v>0</v>
       </c>
       <c r="P98" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Q98" t="s">
         <v>216</v>
       </c>
       <c r="R98" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -7910,13 +7907,13 @@
         <v>0</v>
       </c>
       <c r="P99" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Q99" t="s">
         <v>217</v>
       </c>
       <c r="R99" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -7951,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -7966,13 +7963,13 @@
         <v>0</v>
       </c>
       <c r="P100" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Q100" t="s">
         <v>218</v>
       </c>
       <c r="R100" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -8007,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -8022,13 +8019,13 @@
         <v>0</v>
       </c>
       <c r="P101" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Q101" t="s">
         <v>219</v>
       </c>
       <c r="R101" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -8051,7 +8048,7 @@
         <v>436</v>
       </c>
       <c r="G102" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H102">
         <v>100</v>
@@ -8078,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P102" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Q102" t="s">
         <v>220</v>
       </c>
       <c r="R102" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -8107,7 +8104,7 @@
         <v>437</v>
       </c>
       <c r="G103" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H103">
         <v>100</v>
@@ -8119,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -8134,13 +8131,13 @@
         <v>0</v>
       </c>
       <c r="P103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q103" t="s">
         <v>221</v>
       </c>
       <c r="R103" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
